--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
@@ -764,100 +764,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1608144049558392</v>
+        <v>0.1377531619801652</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0002319426830787245</v>
       </c>
       <c r="O2">
-        <v>0.3703727364680821</v>
+        <v>0.3042291656524011</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.003411002167705636</v>
       </c>
       <c r="Q2">
-        <v>0.009818955953831142</v>
+        <v>0.01780031285624174</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.002511147539177135</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.001096633862132395</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.002733430917574621</v>
       </c>
       <c r="U2">
-        <v>0.04293372513123797</v>
+        <v>0.04410713824180821</v>
       </c>
       <c r="V2">
-        <v>0.006775480508511659</v>
+        <v>0.01538253435154046</v>
       </c>
       <c r="W2">
-        <v>0.112460354537128</v>
+        <v>0.0993400432223335</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.001733258177752026</v>
       </c>
       <c r="Y2">
-        <v>0.01102242327698758</v>
+        <v>0.01875636375177725</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.008361527981705277</v>
       </c>
       <c r="AA2">
-        <v>0.06299278693095725</v>
+        <v>0.06004233118657825</v>
       </c>
       <c r="AB2">
-        <v>0.05594106352041486</v>
+        <v>0.05444034569682233</v>
       </c>
       <c r="AC2">
-        <v>0.007073425420849847</v>
+        <v>0.01561922586345793</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.008095957433879863</v>
       </c>
       <c r="AE2">
-        <v>0.0438218068010067</v>
+        <v>0.04481264246228358</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.005082217371291727</v>
       </c>
       <c r="AG2">
-        <v>0.009166064514120159</v>
+        <v>0.01728164697008704</v>
       </c>
       <c r="AH2">
-        <v>0.07559312628516208</v>
+        <v>0.07005221304364712</v>
       </c>
       <c r="AI2">
-        <v>0.03121364569587169</v>
+        <v>0.03479654689933541</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.00502815030120207</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.001886900433956708</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.000750581607463658</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.006245293591015495</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.004526374871873207</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>5.287185195168939E-08</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.005293075167521324</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.00635090392824317</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.00224787691409595</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -898,100 +898,100 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.09328758731335501</v>
+        <v>0.08457250662181431</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.009719235059112647</v>
       </c>
       <c r="O3">
-        <v>0.3467044346567913</v>
+        <v>0.2871496132964586</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.006844390927714629</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.005955146104945607</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.001155977951904309</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0008186382212923966</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00123632590379427</v>
       </c>
       <c r="U3">
-        <v>0.0431195346405815</v>
+        <v>0.04446902074670744</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0005110366385942267</v>
       </c>
       <c r="W3">
-        <v>0.112474517035731</v>
+        <v>0.09991021107940756</v>
       </c>
       <c r="X3">
-        <v>0.01918185967953922</v>
+        <v>0.02533365155180051</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.006170137912919837</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.008127180105768187</v>
       </c>
       <c r="AA3">
-        <v>0.01573615402619858</v>
+        <v>0.02257921320634892</v>
       </c>
       <c r="AB3">
-        <v>0.08256452044515905</v>
+        <v>0.07600066980982052</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0003622031928065767</v>
       </c>
       <c r="AD3">
-        <v>0.0270611468869987</v>
+        <v>0.03163221939319789</v>
       </c>
       <c r="AE3">
-        <v>0.03409372586944558</v>
+        <v>0.0372539431170129</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.004192430527455261</v>
       </c>
       <c r="AG3">
-        <v>0.06412528834009124</v>
+        <v>0.06126066207827222</v>
       </c>
       <c r="AH3">
-        <v>0.02220976361470356</v>
+        <v>0.02775410632781265</v>
       </c>
       <c r="AI3">
-        <v>0.1249589125895823</v>
+        <v>0.1098900240097356</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.002606664000882658</v>
       </c>
       <c r="AK3">
-        <v>0.011453950561365</v>
+        <v>0.01915609277378155</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.0007082683104214916</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.0006857765348885152</v>
       </c>
       <c r="AN3">
-        <v>0.003028604340457946</v>
+        <v>0.01242101466806102</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.0004830368848384983</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.0007805529357986644</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.005657522861349884</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.004602527245280466</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -1032,100 +1032,100 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2229819650632389</v>
+        <v>0.185913813103198</v>
       </c>
       <c r="N4">
-        <v>0.054140272480428</v>
+        <v>0.05271207212555132</v>
       </c>
       <c r="O4">
-        <v>0.2343514060212586</v>
+        <v>0.1948833354195419</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.003062509198281188</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.009135489992745232</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.499150404065134E-05</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0005644004144444916</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.001472430918410208</v>
       </c>
       <c r="U4">
-        <v>0.04897349854806408</v>
+        <v>0.04863592675824966</v>
       </c>
       <c r="V4">
-        <v>0.01680768392020967</v>
+        <v>0.02325983366860567</v>
       </c>
       <c r="W4">
-        <v>0.0961200363568406</v>
+        <v>0.08583053681652869</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00252387920427389</v>
       </c>
       <c r="Y4">
-        <v>0.003878859088935221</v>
+        <v>0.01306009005091993</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.002108435638860065</v>
       </c>
       <c r="AA4">
-        <v>0.06247691805989709</v>
+        <v>0.05928897672838954</v>
       </c>
       <c r="AB4">
-        <v>0.03349370861501081</v>
+        <v>0.03642368855150675</v>
       </c>
       <c r="AC4">
-        <v>0.01977598033446267</v>
+        <v>0.02560156718281032</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.003162121559286415</v>
       </c>
       <c r="AE4">
-        <v>0.05774155128235835</v>
+        <v>0.05555317492915975</v>
       </c>
       <c r="AF4">
-        <v>0.006626287458440335</v>
+        <v>0.01522757745543032</v>
       </c>
       <c r="AG4">
-        <v>0.008819952274019221</v>
+        <v>0.01695819249539269</v>
       </c>
       <c r="AH4">
-        <v>0.1065380672768528</v>
+        <v>0.09404947749922746</v>
       </c>
       <c r="AI4">
-        <v>0.0211332044502668</v>
+        <v>0.02667230162260687</v>
       </c>
       <c r="AJ4">
-        <v>0.006140608769716525</v>
+        <v>0.01484441826113343</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.00367635792633211</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.001874769955872187</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.009260870979330534</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.003931986033282021</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>4.352582633482202E-06</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.002992333874673776</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.006286292383533729</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.001013795165747966</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -1166,100 +1166,100 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1235929690994866</v>
+        <v>0.1089376336892066</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.003460973383102741</v>
       </c>
       <c r="O5">
-        <v>0.3523841177464215</v>
+        <v>0.2920876544476066</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.005455383103800835</v>
       </c>
       <c r="Q5">
-        <v>0.0109819547268525</v>
+        <v>0.0187911846593974</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.003167175426139229</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>5.201449235441082E-10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2.417959712673642E-05</v>
       </c>
       <c r="U5">
-        <v>0.03530998264615263</v>
+        <v>0.03826605877398412</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.002630477573356998</v>
       </c>
       <c r="W5">
-        <v>0.1316385683445145</v>
+        <v>0.1153782310525888</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.006656496448318329</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.008484203085197824</v>
       </c>
       <c r="Z5">
-        <v>0.006045082988199479</v>
+        <v>0.0148391604365933</v>
       </c>
       <c r="AA5">
-        <v>0.02590911826532901</v>
+        <v>0.03074055563858205</v>
       </c>
       <c r="AB5">
-        <v>0.08817835133756781</v>
+        <v>0.08058781326737044</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.006204950163751749</v>
       </c>
       <c r="AD5">
-        <v>0.01807620809497196</v>
+        <v>0.02447021839527631</v>
       </c>
       <c r="AE5">
-        <v>0.05210415979209271</v>
+        <v>0.05170999622999889</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.325886674201987E-06</v>
       </c>
       <c r="AG5">
-        <v>0.03619310018930463</v>
+        <v>0.03897300481327341</v>
       </c>
       <c r="AH5">
-        <v>0.05182380314549435</v>
+        <v>0.05148556741818553</v>
       </c>
       <c r="AI5">
-        <v>0.06776258362361258</v>
+        <v>0.06424474972351045</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.004850958775573553</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.006340584338381911</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.001270266575318844</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.001982054313488899</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.007897120453517731</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>7.314837059413304E-05</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.002195725845056544</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.006191986422027673</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.00260016117285337</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1300,100 +1300,100 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2096836020663077</v>
+        <v>0.1786757011141007</v>
       </c>
       <c r="N6">
-        <v>0.1932369044015249</v>
+        <v>0.1654454902998969</v>
       </c>
       <c r="O6">
-        <v>0.139790363997493</v>
+        <v>0.1224515099126162</v>
       </c>
       <c r="P6">
-        <v>0.01138585923281594</v>
+        <v>0.01915912245858102</v>
       </c>
       <c r="Q6">
-        <v>0.01073764945913154</v>
+        <v>0.01863768331423318</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.0005079020413086957</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.002046549942462426</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.00867493729260394</v>
       </c>
       <c r="U6">
-        <v>0.001579918808869742</v>
+        <v>0.01127093349295471</v>
       </c>
       <c r="V6">
-        <v>0.1046423633812465</v>
+        <v>0.09417741700176747</v>
       </c>
       <c r="W6">
-        <v>0.01979917202906401</v>
+        <v>0.02592704050565183</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.000832519194703629</v>
       </c>
       <c r="Y6">
-        <v>0.02760780323836777</v>
+        <v>0.0322085347712561</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.002047968375946144</v>
       </c>
       <c r="AA6">
-        <v>0.1101760536828766</v>
+        <v>0.09862888140898696</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.003698953566135834</v>
       </c>
       <c r="AC6">
-        <v>0.04736813344210433</v>
+        <v>0.04810432976197451</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.008924893826378453</v>
       </c>
       <c r="AE6">
-        <v>0.01000598031887805</v>
+        <v>0.01804910698303881</v>
       </c>
       <c r="AF6">
-        <v>0.02623500148633265</v>
+        <v>0.03110421237440046</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.004579049175052191</v>
       </c>
       <c r="AH6">
-        <v>0.08546069235004941</v>
+        <v>0.07874711259148717</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.0006322414137134375</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.003355787207144173</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.272943751283915E-06</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.0003312660126691367</v>
       </c>
       <c r="AM6">
-        <v>0.002290502104937686</v>
+        <v>0.01184254774644472</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>7.169007496951954E-05</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.0002712854167135838</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.006329735716960435</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.00261231949255713</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.0006510045695393407</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1431,100 +1431,100 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02353553441538686</v>
+        <v>0.02837503411333008</v>
       </c>
       <c r="M7">
-        <v>0.07456487629847723</v>
+        <v>0.06821546778835849</v>
       </c>
       <c r="N7">
-        <v>0.1691467136381445</v>
+        <v>0.1420588935183306</v>
       </c>
       <c r="O7">
-        <v>0.0166085844247933</v>
+        <v>0.0229669163229274</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.0002668793046895524</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.0002590190178715127</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.404916381074246E-05</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.0001151022180865232</v>
       </c>
       <c r="T7">
-        <v>0.009925120012391906</v>
+        <v>0.017748896438373</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.0006345937343309589</v>
       </c>
       <c r="V7">
-        <v>0.1402529126880408</v>
+        <v>0.1195004689356782</v>
       </c>
       <c r="W7">
-        <v>0.0323996248901586</v>
+        <v>0.03529554681480033</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.009865270984007097</v>
       </c>
       <c r="Y7">
-        <v>0.04111174429534888</v>
+        <v>0.04209741026282626</v>
       </c>
       <c r="Z7">
-        <v>0.0401484282899547</v>
+        <v>0.04134531497794237</v>
       </c>
       <c r="AA7">
-        <v>0.06305801487333422</v>
+        <v>0.05923164921459659</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.000923741566822898</v>
       </c>
       <c r="AC7">
-        <v>0.02343798719310035</v>
+        <v>0.02829887550543361</v>
       </c>
       <c r="AD7">
-        <v>0.0300896789271349</v>
+        <v>0.03349208932276394</v>
       </c>
       <c r="AE7">
-        <v>0.04506329151869034</v>
+        <v>0.04518252461577946</v>
       </c>
       <c r="AF7">
-        <v>0.0631884242554199</v>
+        <v>0.0593334644868666</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.0004085832397945892</v>
       </c>
       <c r="AH7">
-        <v>0.182439053550631</v>
+        <v>0.1524366990538717</v>
       </c>
       <c r="AI7">
-        <v>0.009919601132157591</v>
+        <v>0.01774458765103963</v>
       </c>
       <c r="AJ7">
-        <v>0.01030687314725611</v>
+        <v>0.01804694477465443</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>0.002389070253101914</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.003762236436606363</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.008719422062613657</v>
       </c>
       <c r="AN7">
-        <v>0.01790819862252675</v>
+        <v>0.02398157164351821</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>7.140692186650437E-05</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.00183483261245889</v>
       </c>
       <c r="AQ7">
-        <v>0.006895337827052198</v>
+        <v>0.01538343704284808</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05777619523025532</v>
+        <v>0.05544700688376016</v>
       </c>
       <c r="E8">
-        <v>0.03453166712300523</v>
+        <v>0.03713221100471886</v>
       </c>
       <c r="F8">
-        <v>0.1900016833548406</v>
+        <v>0.1596299274332655</v>
       </c>
       <c r="G8">
-        <v>0.00489587943383256</v>
+        <v>0.01378162286898858</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.280007549245903E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1565,76 +1565,76 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.009162109659606701</v>
+        <v>0.01714306498549595</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.132195995213134</v>
+        <v>0.114083750970657</v>
       </c>
       <c r="O8">
-        <v>0.02446664389508819</v>
+        <v>0.02920179206540669</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.006140765192337181</v>
       </c>
       <c r="Q8">
-        <v>0.03091279049945682</v>
+        <v>0.03428083082759018</v>
       </c>
       <c r="R8">
-        <v>0.05979886084962335</v>
+        <v>0.05704070273249308</v>
       </c>
       <c r="S8">
-        <v>0.05667635806624877</v>
+        <v>0.05458042473306978</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.003105949344837635</v>
       </c>
       <c r="U8">
-        <v>0.01434495957483741</v>
+        <v>0.02122672879795038</v>
       </c>
       <c r="V8">
-        <v>0.03357243050267353</v>
+        <v>0.03637641063656266</v>
       </c>
       <c r="W8">
-        <v>0.03822236437617935</v>
+        <v>0.04004017999128388</v>
       </c>
       <c r="X8">
-        <v>0.08040090946561966</v>
+        <v>0.07327343988900127</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>3.266421104949425E-05</v>
       </c>
       <c r="Z8">
-        <v>0.1854810507412456</v>
+        <v>0.1560680369453143</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.007174359163032516</v>
       </c>
       <c r="AB8">
-        <v>0.01470459886928923</v>
+        <v>0.02151009528478876</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.001432279634245869</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.002552306720021762</v>
       </c>
       <c r="AE8">
-        <v>0.003388267566985437</v>
+        <v>0.01259374744821318</v>
       </c>
       <c r="AF8">
-        <v>0.02173768974630732</v>
+        <v>0.02705159835239276</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.003022982498011318</v>
       </c>
       <c r="AI8">
-        <v>0.007729545831770846</v>
+        <v>0.0160143213100187</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1702,100 +1702,100 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1565029682882252</v>
+        <v>0.1333231199823689</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.007805562050949928</v>
       </c>
       <c r="O9">
-        <v>0.2236721198178088</v>
+        <v>0.1862518881955146</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.002299009586706642</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.002015816325200296</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.004989350807255975</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>5.796283024742135E-05</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.0005186347865228135</v>
       </c>
       <c r="U9">
-        <v>0.006662281877930564</v>
+        <v>0.01524982622614071</v>
       </c>
       <c r="V9">
-        <v>0.006148153357873608</v>
+        <v>0.014844696956972</v>
       </c>
       <c r="W9">
-        <v>0.1099441032181437</v>
+        <v>0.09663509696221653</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.002675832474871234</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.004727228026202425</v>
       </c>
       <c r="Z9">
-        <v>0.01526345988456162</v>
+        <v>0.02202748749929933</v>
       </c>
       <c r="AA9">
-        <v>0.1132805330438005</v>
+        <v>0.09926417767680376</v>
       </c>
       <c r="AB9">
-        <v>0.02210118664732866</v>
+        <v>0.02741556292812056</v>
       </c>
       <c r="AC9">
-        <v>0.05652966207196806</v>
+        <v>0.05454493339337255</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.0007778716726089539</v>
       </c>
       <c r="AE9">
-        <v>0.07601456132418079</v>
+        <v>0.06989888223285785</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.003122711586979333</v>
       </c>
       <c r="AG9">
-        <v>0.04513267431556664</v>
+        <v>0.04556419581444172</v>
       </c>
       <c r="AH9">
-        <v>0.06451730546547904</v>
+        <v>0.06083913417032001</v>
       </c>
       <c r="AI9">
-        <v>0.08807380290528005</v>
+        <v>0.0794014706672407</v>
       </c>
       <c r="AJ9">
-        <v>0.003725117380011996</v>
+        <v>0.01293536347986436</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>0.007375627699283004</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.006642928479082629</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.001976151378106015</v>
       </c>
       <c r="AN9">
-        <v>0.009567577875891199</v>
+        <v>0.01753917684267948</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.002841278429046427</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.0001223203621531309</v>
       </c>
       <c r="AQ9">
-        <v>0.002864492525949619</v>
+        <v>0.0122571977984194</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.00405950267815123</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1833,100 +1833,100 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02745187291398486</v>
+        <v>0.03105802702806259</v>
       </c>
       <c r="M10">
-        <v>0.07729185721453913</v>
+        <v>0.06928972581844355</v>
       </c>
       <c r="N10">
-        <v>0.256155198098029</v>
+        <v>0.2064938094325463</v>
       </c>
       <c r="O10">
-        <v>0.01779146616701691</v>
+        <v>0.02364763623188139</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.009921931655374156</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.0005891700114057567</v>
       </c>
       <c r="R10">
-        <v>0.004698252837967152</v>
+        <v>0.01360397760679502</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.0054518666457588</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.009274929339491363</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.006203190069465357</v>
       </c>
       <c r="V10">
-        <v>0.1471176370124368</v>
+        <v>0.1228523065154644</v>
       </c>
       <c r="W10">
-        <v>0.01780518697711145</v>
+        <v>0.02365816131301969</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>9.600105482775519E-06</v>
       </c>
       <c r="Y10">
-        <v>0.03466407990569411</v>
+        <v>0.03659043096418986</v>
       </c>
       <c r="Z10">
-        <v>0.02291916173518944</v>
+        <v>0.02758103459069596</v>
       </c>
       <c r="AA10">
-        <v>0.07054660983357938</v>
+        <v>0.06411552141700695</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.001829656174672793</v>
       </c>
       <c r="AC10">
-        <v>0.03137312539105136</v>
+        <v>0.03406597628182217</v>
       </c>
       <c r="AD10">
-        <v>0.04612026889310361</v>
+        <v>0.04537834638589372</v>
       </c>
       <c r="AE10">
-        <v>0.02106092879328146</v>
+        <v>0.02615560472520944</v>
       </c>
       <c r="AF10">
-        <v>0.07238021817117607</v>
+        <v>0.0655220620218311</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.004141932959268971</v>
       </c>
       <c r="AH10">
-        <v>0.1324421350063595</v>
+        <v>0.111594891807817</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.0005854983415077766</v>
       </c>
       <c r="AJ10">
-        <v>0.01009972386768184</v>
+        <v>0.01774738608356543</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.0001137858998828708</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.002162907899612905</v>
       </c>
       <c r="AM10">
-        <v>0.006086660584008538</v>
+        <v>0.01466900977905226</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.007830217582677825</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>4.637355048410476E-05</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.004750038616207948</v>
       </c>
       <c r="AQ10">
-        <v>0.003995616597789644</v>
+        <v>0.01306499314541</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -1967,100 +1967,100 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07137082424676204</v>
+        <v>0.06631965444707476</v>
       </c>
       <c r="M11">
-        <v>0.00930176730339036</v>
+        <v>0.0173401467028428</v>
       </c>
       <c r="N11">
-        <v>0.2260840463348074</v>
+        <v>0.1884058892405248</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.007684901277072531</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.46351947491738E-05</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>8.560478920743717E-05</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.002376379876115347</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.0003155978879655446</v>
       </c>
       <c r="T11">
-        <v>0.00671589429710041</v>
+        <v>0.0152996003634207</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.913913644921436E-06</v>
       </c>
       <c r="V11">
-        <v>0.1366227328873408</v>
+        <v>0.1178107922535183</v>
       </c>
       <c r="W11">
-        <v>0.01343099596720622</v>
+        <v>0.02059857525447349</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.001392025444372978</v>
       </c>
       <c r="Y11">
-        <v>0.02589649471356275</v>
+        <v>0.03043526397587486</v>
       </c>
       <c r="Z11">
-        <v>0.0668616318933145</v>
+        <v>0.06276139155937834</v>
       </c>
       <c r="AA11">
-        <v>0.05495282967003408</v>
+        <v>0.05336399937325492</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.008290901058851044</v>
       </c>
       <c r="AC11">
-        <v>0.005251245470797281</v>
+        <v>0.01414382674507906</v>
       </c>
       <c r="AD11">
-        <v>0.03809039106977202</v>
+        <v>0.04005762768531888</v>
       </c>
       <c r="AE11">
-        <v>0.02053055232662484</v>
+        <v>0.02620092838840313</v>
       </c>
       <c r="AF11">
-        <v>0.09554017555941557</v>
+        <v>0.08539200688947148</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.003912127011701631</v>
       </c>
       <c r="AH11">
-        <v>0.1801814486241708</v>
+        <v>0.1521835467277378</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.0001505611651220034</v>
       </c>
       <c r="AJ11">
-        <v>0.01567832894536392</v>
+        <v>0.02237197521297403</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>9.888831186681814E-05</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.001265450656362986</v>
       </c>
       <c r="AM11">
-        <v>0.01187159566975112</v>
+        <v>0.01936803200624526</v>
       </c>
       <c r="AN11">
-        <v>0.01309953732337917</v>
+        <v>0.02033701688687929</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3.796636176807554E-05</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.005259917961480967</v>
       </c>
       <c r="AQ11">
-        <v>0.008519507697206817</v>
+        <v>0.01672285537724682</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -2251,100 +2251,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1608144049558392</v>
+        <v>0.1377531619801652</v>
       </c>
       <c r="N2">
-        <v>0.1608144049558392</v>
+        <v>0.1379851046632439</v>
       </c>
       <c r="O2">
-        <v>0.5311871414239212</v>
+        <v>0.442214270315645</v>
       </c>
       <c r="P2">
-        <v>0.5311871414239212</v>
+        <v>0.4456252724833506</v>
       </c>
       <c r="Q2">
-        <v>0.5410060973777523</v>
+        <v>0.4634255853395923</v>
       </c>
       <c r="R2">
-        <v>0.5410060973777523</v>
+        <v>0.4659367328787695</v>
       </c>
       <c r="S2">
-        <v>0.5410060973777523</v>
+        <v>0.4670333667409018</v>
       </c>
       <c r="T2">
-        <v>0.5410060973777523</v>
+        <v>0.4697667976584765</v>
       </c>
       <c r="U2">
-        <v>0.5839398225089902</v>
+        <v>0.5138739359002846</v>
       </c>
       <c r="V2">
-        <v>0.5907153030175019</v>
+        <v>0.5292564702518251</v>
       </c>
       <c r="W2">
-        <v>0.7031756575546299</v>
+        <v>0.6285965134741586</v>
       </c>
       <c r="X2">
-        <v>0.7031756575546299</v>
+        <v>0.6303297716519106</v>
       </c>
       <c r="Y2">
-        <v>0.7141980808316174</v>
+        <v>0.6490861354036879</v>
       </c>
       <c r="Z2">
-        <v>0.7141980808316174</v>
+        <v>0.6574476633853932</v>
       </c>
       <c r="AA2">
-        <v>0.7771908677625746</v>
+        <v>0.7174899945719714</v>
       </c>
       <c r="AB2">
-        <v>0.8331319312829895</v>
+        <v>0.7719303402687937</v>
       </c>
       <c r="AC2">
-        <v>0.8402053567038393</v>
+        <v>0.7875495661322517</v>
       </c>
       <c r="AD2">
-        <v>0.8402053567038393</v>
+        <v>0.7956455235661315</v>
       </c>
       <c r="AE2">
-        <v>0.884027163504846</v>
+        <v>0.8404581660284151</v>
       </c>
       <c r="AF2">
-        <v>0.884027163504846</v>
+        <v>0.8455403833997068</v>
       </c>
       <c r="AG2">
-        <v>0.8931932280189662</v>
+        <v>0.8628220303697939</v>
       </c>
       <c r="AH2">
-        <v>0.9687863543041283</v>
+        <v>0.9328742434134409</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9676707903127764</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9726989406139784</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9745858410479351</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9753364226553988</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9815817162464142</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9861080911182875</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9861081439901394</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9914012191576607</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9977521230859039</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -2385,100 +2385,100 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.09328758731335501</v>
+        <v>0.08457250662181431</v>
       </c>
       <c r="N3">
-        <v>0.09328758731335501</v>
+        <v>0.09429174168092697</v>
       </c>
       <c r="O3">
-        <v>0.4399920219701463</v>
+        <v>0.3814413549773856</v>
       </c>
       <c r="P3">
-        <v>0.4399920219701463</v>
+        <v>0.3882857459051002</v>
       </c>
       <c r="Q3">
-        <v>0.4399920219701463</v>
+        <v>0.3942408920100458</v>
       </c>
       <c r="R3">
-        <v>0.4399920219701463</v>
+        <v>0.3953968699619501</v>
       </c>
       <c r="S3">
-        <v>0.4399920219701463</v>
+        <v>0.3962155081832425</v>
       </c>
       <c r="T3">
-        <v>0.4399920219701463</v>
+        <v>0.3974518340870368</v>
       </c>
       <c r="U3">
-        <v>0.4831115566107278</v>
+        <v>0.4419208548337442</v>
       </c>
       <c r="V3">
-        <v>0.4831115566107278</v>
+        <v>0.4424318914723385</v>
       </c>
       <c r="W3">
-        <v>0.5955860736464588</v>
+        <v>0.5423421025517461</v>
       </c>
       <c r="X3">
-        <v>0.614767933325998</v>
+        <v>0.5676757541035466</v>
       </c>
       <c r="Y3">
-        <v>0.614767933325998</v>
+        <v>0.5738458920164665</v>
       </c>
       <c r="Z3">
-        <v>0.614767933325998</v>
+        <v>0.5819730721222347</v>
       </c>
       <c r="AA3">
-        <v>0.6305040873521965</v>
+        <v>0.6045522853285836</v>
       </c>
       <c r="AB3">
-        <v>0.7130686077973556</v>
+        <v>0.6805529551384042</v>
       </c>
       <c r="AC3">
-        <v>0.7130686077973556</v>
+        <v>0.6809151583312107</v>
       </c>
       <c r="AD3">
-        <v>0.7401297546843543</v>
+        <v>0.7125473777244087</v>
       </c>
       <c r="AE3">
-        <v>0.7742234805537999</v>
+        <v>0.7498013208414216</v>
       </c>
       <c r="AF3">
-        <v>0.7742234805537999</v>
+        <v>0.7539937513688768</v>
       </c>
       <c r="AG3">
-        <v>0.8383487688938911</v>
+        <v>0.815254413447149</v>
       </c>
       <c r="AH3">
-        <v>0.8605585325085947</v>
+        <v>0.8430085197749616</v>
       </c>
       <c r="AI3">
-        <v>0.985517445098177</v>
+        <v>0.9528985437846972</v>
       </c>
       <c r="AJ3">
-        <v>0.985517445098177</v>
+        <v>0.9555052077855798</v>
       </c>
       <c r="AK3">
-        <v>0.996971395659542</v>
+        <v>0.9746613005593614</v>
       </c>
       <c r="AL3">
-        <v>0.996971395659542</v>
+        <v>0.9753695688697829</v>
       </c>
       <c r="AM3">
-        <v>0.996971395659542</v>
+        <v>0.9760553454046714</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999999</v>
+        <v>0.9884763600727324</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999999</v>
+        <v>0.988959396957571</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999999</v>
+        <v>0.9897399498933697</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999999</v>
+        <v>0.9953974727547196</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -2519,100 +2519,100 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2229819650632389</v>
+        <v>0.185913813103198</v>
       </c>
       <c r="N4">
-        <v>0.2771222375436669</v>
+        <v>0.2386258852287493</v>
       </c>
       <c r="O4">
-        <v>0.5114736435649256</v>
+        <v>0.4335092206482912</v>
       </c>
       <c r="P4">
-        <v>0.5114736435649256</v>
+        <v>0.4365717298465724</v>
       </c>
       <c r="Q4">
-        <v>0.5114736435649256</v>
+        <v>0.4457072198393176</v>
       </c>
       <c r="R4">
-        <v>0.5114736435649256</v>
+        <v>0.4457222113433583</v>
       </c>
       <c r="S4">
-        <v>0.5114736435649256</v>
+        <v>0.4462866117578028</v>
       </c>
       <c r="T4">
-        <v>0.5114736435649256</v>
+        <v>0.447759042676213</v>
       </c>
       <c r="U4">
-        <v>0.5604471421129897</v>
+        <v>0.4963949694344627</v>
       </c>
       <c r="V4">
-        <v>0.5772548260331994</v>
+        <v>0.5196548031030683</v>
       </c>
       <c r="W4">
-        <v>0.6733748623900401</v>
+        <v>0.605485339919597</v>
       </c>
       <c r="X4">
-        <v>0.6733748623900401</v>
+        <v>0.6080092191238708</v>
       </c>
       <c r="Y4">
-        <v>0.6772537214789753</v>
+        <v>0.6210693091747908</v>
       </c>
       <c r="Z4">
-        <v>0.6772537214789753</v>
+        <v>0.6231777448136508</v>
       </c>
       <c r="AA4">
-        <v>0.7397306395388724</v>
+        <v>0.6824667215420404</v>
       </c>
       <c r="AB4">
-        <v>0.7732243481538832</v>
+        <v>0.7188904100935471</v>
       </c>
       <c r="AC4">
-        <v>0.7930003284883459</v>
+        <v>0.7444919772763575</v>
       </c>
       <c r="AD4">
-        <v>0.7930003284883459</v>
+        <v>0.7476540988356439</v>
       </c>
       <c r="AE4">
-        <v>0.8507418797707043</v>
+        <v>0.8032072737648037</v>
       </c>
       <c r="AF4">
-        <v>0.8573681672291446</v>
+        <v>0.8184348512202341</v>
       </c>
       <c r="AG4">
-        <v>0.8661881195031638</v>
+        <v>0.8353930437156267</v>
       </c>
       <c r="AH4">
-        <v>0.9727261867800165</v>
+        <v>0.9294425212148542</v>
       </c>
       <c r="AI4">
-        <v>0.9938593912302833</v>
+        <v>0.9561148228374611</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9709592410985945</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.9746355990249267</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>0.9765103689807989</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>0.9857712399601294</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>0.9897032259934114</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999999</v>
+        <v>0.9897075785760449</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999999</v>
+        <v>0.9926999124507186</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9989862048342524</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -2653,97 +2653,97 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1235929690994866</v>
+        <v>0.1089376336892066</v>
       </c>
       <c r="N5">
-        <v>0.1235929690994866</v>
+        <v>0.1123986070723093</v>
       </c>
       <c r="O5">
-        <v>0.4759770868459081</v>
+        <v>0.404486261519916</v>
       </c>
       <c r="P5">
-        <v>0.4759770868459081</v>
+        <v>0.4099416446237168</v>
       </c>
       <c r="Q5">
-        <v>0.4869590415727605</v>
+        <v>0.4287328292831142</v>
       </c>
       <c r="R5">
-        <v>0.4869590415727605</v>
+        <v>0.4319000047092534</v>
       </c>
       <c r="S5">
-        <v>0.4869590415727605</v>
+        <v>0.4319000052293983</v>
       </c>
       <c r="T5">
-        <v>0.4869590415727605</v>
+        <v>0.4319241848265251</v>
       </c>
       <c r="U5">
-        <v>0.5222690242189132</v>
+        <v>0.4701902436005092</v>
       </c>
       <c r="V5">
-        <v>0.5222690242189132</v>
+        <v>0.4728207211738662</v>
       </c>
       <c r="W5">
-        <v>0.6539075925634277</v>
+        <v>0.588198952226455</v>
       </c>
       <c r="X5">
-        <v>0.6539075925634277</v>
+        <v>0.5948554486747734</v>
       </c>
       <c r="Y5">
-        <v>0.6539075925634277</v>
+        <v>0.6033396517599712</v>
       </c>
       <c r="Z5">
-        <v>0.6599526755516272</v>
+        <v>0.6181788121965645</v>
       </c>
       <c r="AA5">
-        <v>0.6858617938169562</v>
+        <v>0.6489193678351465</v>
       </c>
       <c r="AB5">
-        <v>0.774040145154524</v>
+        <v>0.7295071811025169</v>
       </c>
       <c r="AC5">
-        <v>0.774040145154524</v>
+        <v>0.7357121312662687</v>
       </c>
       <c r="AD5">
-        <v>0.792116353249496</v>
+        <v>0.760182349661545</v>
       </c>
       <c r="AE5">
-        <v>0.8442205130415887</v>
+        <v>0.8118923458915439</v>
       </c>
       <c r="AF5">
-        <v>0.8442205130415887</v>
+        <v>0.8118946717782181</v>
       </c>
       <c r="AG5">
-        <v>0.8804136132308934</v>
+        <v>0.8508676765914914</v>
       </c>
       <c r="AH5">
-        <v>0.9322374163763878</v>
+        <v>0.902353244009677</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9665979937331874</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.971448952508761</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9777895368471429</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9790598034224617</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9810418577359505</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9889389781894683</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.9890121265600624</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.991207852405119</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9973998388271467</v>
       </c>
       <c r="AR5">
         <v>1</v>
@@ -2787,100 +2787,100 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2096836020663077</v>
+        <v>0.1786757011141007</v>
       </c>
       <c r="N6">
-        <v>0.4029205064678326</v>
+        <v>0.3441211914139976</v>
       </c>
       <c r="O6">
-        <v>0.5427108704653255</v>
+        <v>0.4665727013266138</v>
       </c>
       <c r="P6">
-        <v>0.5540967296981415</v>
+        <v>0.4857318237851948</v>
       </c>
       <c r="Q6">
-        <v>0.5648343791572731</v>
+        <v>0.504369507099428</v>
       </c>
       <c r="R6">
-        <v>0.5648343791572731</v>
+        <v>0.5048774091407366</v>
       </c>
       <c r="S6">
-        <v>0.5648343791572731</v>
+        <v>0.5069239590831991</v>
       </c>
       <c r="T6">
-        <v>0.5648343791572731</v>
+        <v>0.515598896375803</v>
       </c>
       <c r="U6">
-        <v>0.5664142979661428</v>
+        <v>0.5268698298687577</v>
       </c>
       <c r="V6">
-        <v>0.6710566613473894</v>
+        <v>0.6210472468705253</v>
       </c>
       <c r="W6">
-        <v>0.6908558333764534</v>
+        <v>0.6469742873761771</v>
       </c>
       <c r="X6">
-        <v>0.6908558333764534</v>
+        <v>0.6478068065708807</v>
       </c>
       <c r="Y6">
-        <v>0.7184636366148212</v>
+        <v>0.6800153413421368</v>
       </c>
       <c r="Z6">
-        <v>0.7184636366148212</v>
+        <v>0.6820633097180829</v>
       </c>
       <c r="AA6">
-        <v>0.8286396902976977</v>
+        <v>0.7806921911270699</v>
       </c>
       <c r="AB6">
-        <v>0.8286396902976977</v>
+        <v>0.7843911446932057</v>
       </c>
       <c r="AC6">
-        <v>0.876007823739802</v>
+        <v>0.8324954744551802</v>
       </c>
       <c r="AD6">
-        <v>0.876007823739802</v>
+        <v>0.8414203682815586</v>
       </c>
       <c r="AE6">
-        <v>0.88601380405868</v>
+        <v>0.8594694752645975</v>
       </c>
       <c r="AF6">
-        <v>0.9122488055450126</v>
+        <v>0.8905736876389979</v>
       </c>
       <c r="AG6">
-        <v>0.9122488055450126</v>
+        <v>0.8951527368140501</v>
       </c>
       <c r="AH6">
-        <v>0.997709497895062</v>
+        <v>0.9738998494055372</v>
       </c>
       <c r="AI6">
-        <v>0.997709497895062</v>
+        <v>0.9745320908192506</v>
       </c>
       <c r="AJ6">
-        <v>0.997709497895062</v>
+        <v>0.9778878780263948</v>
       </c>
       <c r="AK6">
-        <v>0.997709497895062</v>
+        <v>0.9778901509701461</v>
       </c>
       <c r="AL6">
-        <v>0.997709497895062</v>
+        <v>0.9782214169828152</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999997</v>
+        <v>0.9900639647292599</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999997</v>
+        <v>0.9901356548042295</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999997</v>
+        <v>0.9904069402209431</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999997</v>
+        <v>0.9967366759379035</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9993489954304606</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -2918,97 +2918,97 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02353553441538686</v>
+        <v>0.02837503411333008</v>
       </c>
       <c r="M7">
-        <v>0.09810041071386409</v>
+        <v>0.09659050190168858</v>
       </c>
       <c r="N7">
-        <v>0.2672471243520086</v>
+        <v>0.2386493954200192</v>
       </c>
       <c r="O7">
-        <v>0.2838557087768019</v>
+        <v>0.2616163117429466</v>
       </c>
       <c r="P7">
-        <v>0.2838557087768019</v>
+        <v>0.2618831910476362</v>
       </c>
       <c r="Q7">
-        <v>0.2838557087768019</v>
+        <v>0.2621422100655077</v>
       </c>
       <c r="R7">
-        <v>0.2838557087768019</v>
+        <v>0.2621562592293185</v>
       </c>
       <c r="S7">
-        <v>0.2838557087768019</v>
+        <v>0.262271361447405</v>
       </c>
       <c r="T7">
-        <v>0.2937808287891939</v>
+        <v>0.280020257885778</v>
       </c>
       <c r="U7">
-        <v>0.2937808287891939</v>
+        <v>0.2806548516201089</v>
       </c>
       <c r="V7">
-        <v>0.4340337414772347</v>
+        <v>0.4001553205557872</v>
       </c>
       <c r="W7">
-        <v>0.4664333663673933</v>
+        <v>0.4354508673705875</v>
       </c>
       <c r="X7">
-        <v>0.4664333663673933</v>
+        <v>0.4453161383545946</v>
       </c>
       <c r="Y7">
-        <v>0.5075451106627422</v>
+        <v>0.4874135486174209</v>
       </c>
       <c r="Z7">
-        <v>0.5476935389526969</v>
+        <v>0.5287588635953633</v>
       </c>
       <c r="AA7">
-        <v>0.6107515538260311</v>
+        <v>0.5879905128099598</v>
       </c>
       <c r="AB7">
-        <v>0.6107515538260311</v>
+        <v>0.5889142543767827</v>
       </c>
       <c r="AC7">
-        <v>0.6341895410191314</v>
+        <v>0.6172131298822163</v>
       </c>
       <c r="AD7">
-        <v>0.6642792199462663</v>
+        <v>0.6507052192049803</v>
       </c>
       <c r="AE7">
-        <v>0.7093425114649566</v>
+        <v>0.6958877438207597</v>
       </c>
       <c r="AF7">
-        <v>0.7725309357203766</v>
+        <v>0.7552212083076263</v>
       </c>
       <c r="AG7">
-        <v>0.7725309357203766</v>
+        <v>0.7556297915474208</v>
       </c>
       <c r="AH7">
-        <v>0.9549699892710076</v>
+        <v>0.9080664906012925</v>
       </c>
       <c r="AI7">
-        <v>0.9648895904031652</v>
+        <v>0.9258110782523321</v>
       </c>
       <c r="AJ7">
-        <v>0.9751964635504213</v>
+        <v>0.9438580230269865</v>
       </c>
       <c r="AK7">
-        <v>0.9751964635504213</v>
+        <v>0.9462470932800884</v>
       </c>
       <c r="AL7">
-        <v>0.9751964635504213</v>
+        <v>0.9500093297166947</v>
       </c>
       <c r="AM7">
-        <v>0.9751964635504213</v>
+        <v>0.9587287517793084</v>
       </c>
       <c r="AN7">
-        <v>0.9931046621729481</v>
+        <v>0.9827103234228266</v>
       </c>
       <c r="AO7">
-        <v>0.9931046621729481</v>
+        <v>0.9827817303446931</v>
       </c>
       <c r="AP7">
-        <v>0.9931046621729481</v>
+        <v>0.9846165629571519</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -3028,127 +3028,127 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05777619523025532</v>
+        <v>0.05544700688376016</v>
       </c>
       <c r="E8">
-        <v>0.09230786235326055</v>
+        <v>0.092579217888479</v>
       </c>
       <c r="F8">
-        <v>0.2823095457081012</v>
+        <v>0.2522091453217445</v>
       </c>
       <c r="G8">
-        <v>0.2872054251419338</v>
+        <v>0.2659907681907331</v>
       </c>
       <c r="H8">
-        <v>0.2872054251419338</v>
+        <v>0.2660535682662256</v>
       </c>
       <c r="I8">
-        <v>0.2872054251419338</v>
+        <v>0.2660535682662256</v>
       </c>
       <c r="J8">
-        <v>0.2872054251419338</v>
+        <v>0.2660535682662256</v>
       </c>
       <c r="K8">
-        <v>0.2872054251419338</v>
+        <v>0.2660535682662256</v>
       </c>
       <c r="L8">
-        <v>0.2963675348015404</v>
+        <v>0.2831966332517215</v>
       </c>
       <c r="M8">
-        <v>0.2963675348015404</v>
+        <v>0.2831966332517215</v>
       </c>
       <c r="N8">
-        <v>0.4285635300146744</v>
+        <v>0.3972803842223785</v>
       </c>
       <c r="O8">
-        <v>0.4530301739097626</v>
+        <v>0.4264821762877852</v>
       </c>
       <c r="P8">
-        <v>0.4530301739097626</v>
+        <v>0.4326229414801224</v>
       </c>
       <c r="Q8">
-        <v>0.4839429644092194</v>
+        <v>0.4669037723077125</v>
       </c>
       <c r="R8">
-        <v>0.5437418252588427</v>
+        <v>0.5239444750402056</v>
       </c>
       <c r="S8">
-        <v>0.6004181833250914</v>
+        <v>0.5785248997732754</v>
       </c>
       <c r="T8">
-        <v>0.6004181833250914</v>
+        <v>0.581630849118113</v>
       </c>
       <c r="U8">
-        <v>0.6147631428999288</v>
+        <v>0.6028575779160634</v>
       </c>
       <c r="V8">
-        <v>0.6483355734026024</v>
+        <v>0.6392339885526261</v>
       </c>
       <c r="W8">
-        <v>0.6865579377787817</v>
+        <v>0.67927416854391</v>
       </c>
       <c r="X8">
-        <v>0.7669588472444013</v>
+        <v>0.7525476084329112</v>
       </c>
       <c r="Y8">
-        <v>0.7669588472444013</v>
+        <v>0.7525802726439608</v>
       </c>
       <c r="Z8">
-        <v>0.952439897985647</v>
+        <v>0.908648309589275</v>
       </c>
       <c r="AA8">
-        <v>0.952439897985647</v>
+        <v>0.9158226687523076</v>
       </c>
       <c r="AB8">
-        <v>0.9671444968549362</v>
+        <v>0.9373327640370963</v>
       </c>
       <c r="AC8">
-        <v>0.9671444968549362</v>
+        <v>0.9387650436713422</v>
       </c>
       <c r="AD8">
-        <v>0.9671444968549362</v>
+        <v>0.9413173503913639</v>
       </c>
       <c r="AE8">
-        <v>0.9705327644219216</v>
+        <v>0.9539110978395771</v>
       </c>
       <c r="AF8">
-        <v>0.9922704541682289</v>
+        <v>0.9809626961919699</v>
       </c>
       <c r="AG8">
-        <v>0.9922704541682289</v>
+        <v>0.9809626961919699</v>
       </c>
       <c r="AH8">
-        <v>0.9922704541682289</v>
+        <v>0.9839856786899812</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -3189,100 +3189,100 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1565029682882252</v>
+        <v>0.1333231199823689</v>
       </c>
       <c r="N9">
-        <v>0.1565029682882252</v>
+        <v>0.1411286820333188</v>
       </c>
       <c r="O9">
-        <v>0.380175088106034</v>
+        <v>0.3273805702288334</v>
       </c>
       <c r="P9">
-        <v>0.380175088106034</v>
+        <v>0.3296795798155401</v>
       </c>
       <c r="Q9">
-        <v>0.380175088106034</v>
+        <v>0.3316953961407404</v>
       </c>
       <c r="R9">
-        <v>0.380175088106034</v>
+        <v>0.3366847469479964</v>
       </c>
       <c r="S9">
-        <v>0.380175088106034</v>
+        <v>0.3367427097782438</v>
       </c>
       <c r="T9">
-        <v>0.380175088106034</v>
+        <v>0.3372613445647666</v>
       </c>
       <c r="U9">
-        <v>0.3868373699839645</v>
+        <v>0.3525111707909073</v>
       </c>
       <c r="V9">
-        <v>0.3929855233418381</v>
+        <v>0.3673558677478793</v>
       </c>
       <c r="W9">
-        <v>0.5029296265599819</v>
+        <v>0.4639909647100958</v>
       </c>
       <c r="X9">
-        <v>0.5029296265599819</v>
+        <v>0.4666667971849671</v>
       </c>
       <c r="Y9">
-        <v>0.5029296265599819</v>
+        <v>0.4713940252111695</v>
       </c>
       <c r="Z9">
-        <v>0.5181930864445434</v>
+        <v>0.4934215127104688</v>
       </c>
       <c r="AA9">
-        <v>0.6314736194883439</v>
+        <v>0.5926856903872726</v>
       </c>
       <c r="AB9">
-        <v>0.6535748061356725</v>
+        <v>0.6201012533153931</v>
       </c>
       <c r="AC9">
-        <v>0.7101044682076406</v>
+        <v>0.6746461867087656</v>
       </c>
       <c r="AD9">
-        <v>0.7101044682076406</v>
+        <v>0.6754240583813745</v>
       </c>
       <c r="AE9">
-        <v>0.7861190295318214</v>
+        <v>0.7453229406142324</v>
       </c>
       <c r="AF9">
-        <v>0.7861190295318214</v>
+        <v>0.7484456522012117</v>
       </c>
       <c r="AG9">
-        <v>0.8312517038473881</v>
+        <v>0.7940098480156534</v>
       </c>
       <c r="AH9">
-        <v>0.8957690093128672</v>
+        <v>0.8548489821859735</v>
       </c>
       <c r="AI9">
-        <v>0.9838428122181473</v>
+        <v>0.9342504528532142</v>
       </c>
       <c r="AJ9">
-        <v>0.9875679295981593</v>
+        <v>0.9471858163330785</v>
       </c>
       <c r="AK9">
-        <v>0.9875679295981593</v>
+        <v>0.9545614440323615</v>
       </c>
       <c r="AL9">
-        <v>0.9875679295981593</v>
+        <v>0.9612043725114442</v>
       </c>
       <c r="AM9">
-        <v>0.9875679295981593</v>
+        <v>0.9631805238895502</v>
       </c>
       <c r="AN9">
-        <v>0.9971355074740506</v>
+        <v>0.9807197007322297</v>
       </c>
       <c r="AO9">
-        <v>0.9971355074740506</v>
+        <v>0.9835609791612762</v>
       </c>
       <c r="AP9">
-        <v>0.9971355074740506</v>
+        <v>0.9836832995234293</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9959404973218486</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -3320,97 +3320,97 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02745187291398486</v>
+        <v>0.03105802702806259</v>
       </c>
       <c r="M10">
-        <v>0.104743730128524</v>
+        <v>0.1003477528465061</v>
       </c>
       <c r="N10">
-        <v>0.360898928226553</v>
+        <v>0.3068415622790525</v>
       </c>
       <c r="O10">
-        <v>0.3786903943935699</v>
+        <v>0.3304891985109338</v>
       </c>
       <c r="P10">
-        <v>0.3786903943935699</v>
+        <v>0.340411130166308</v>
       </c>
       <c r="Q10">
-        <v>0.3786903943935699</v>
+        <v>0.3410003001777137</v>
       </c>
       <c r="R10">
-        <v>0.383388647231537</v>
+        <v>0.3546042777845087</v>
       </c>
       <c r="S10">
-        <v>0.383388647231537</v>
+        <v>0.3600561444302675</v>
       </c>
       <c r="T10">
-        <v>0.383388647231537</v>
+        <v>0.3693310737697589</v>
       </c>
       <c r="U10">
-        <v>0.383388647231537</v>
+        <v>0.3755342638392242</v>
       </c>
       <c r="V10">
-        <v>0.5305062842439738</v>
+        <v>0.4983865703546886</v>
       </c>
       <c r="W10">
-        <v>0.5483114712210853</v>
+        <v>0.5220447316677084</v>
       </c>
       <c r="X10">
-        <v>0.5483114712210853</v>
+        <v>0.5220543317731912</v>
       </c>
       <c r="Y10">
-        <v>0.5829755511267793</v>
+        <v>0.5586447627373811</v>
       </c>
       <c r="Z10">
-        <v>0.6058947128619688</v>
+        <v>0.586225797328077</v>
       </c>
       <c r="AA10">
-        <v>0.6764413226955482</v>
+        <v>0.6503413187450839</v>
       </c>
       <c r="AB10">
-        <v>0.6764413226955482</v>
+        <v>0.6521709749197567</v>
       </c>
       <c r="AC10">
-        <v>0.7078144480865995</v>
+        <v>0.6862369512015789</v>
       </c>
       <c r="AD10">
-        <v>0.7539347169797032</v>
+        <v>0.7316152975874726</v>
       </c>
       <c r="AE10">
-        <v>0.7749956457729846</v>
+        <v>0.757770902312682</v>
       </c>
       <c r="AF10">
-        <v>0.8473758639441606</v>
+        <v>0.823292964334513</v>
       </c>
       <c r="AG10">
-        <v>0.8473758639441606</v>
+        <v>0.8274348972937821</v>
       </c>
       <c r="AH10">
-        <v>0.9798179989505201</v>
+        <v>0.9390297891015991</v>
       </c>
       <c r="AI10">
-        <v>0.9798179989505201</v>
+        <v>0.9396152874431069</v>
       </c>
       <c r="AJ10">
-        <v>0.989917722818202</v>
+        <v>0.9573626735266723</v>
       </c>
       <c r="AK10">
-        <v>0.989917722818202</v>
+        <v>0.9574764594265551</v>
       </c>
       <c r="AL10">
-        <v>0.989917722818202</v>
+        <v>0.9596393673261681</v>
       </c>
       <c r="AM10">
-        <v>0.9960043834022105</v>
+        <v>0.9743083771052203</v>
       </c>
       <c r="AN10">
-        <v>0.9960043834022105</v>
+        <v>0.9821385946878982</v>
       </c>
       <c r="AO10">
-        <v>0.9960043834022105</v>
+        <v>0.9821849682383823</v>
       </c>
       <c r="AP10">
-        <v>0.9960043834022105</v>
+        <v>0.9869350068545902</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3454,97 +3454,97 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07137082424676204</v>
+        <v>0.06631965444707476</v>
       </c>
       <c r="M11">
-        <v>0.0806725915501524</v>
+        <v>0.08365980114991756</v>
       </c>
       <c r="N11">
-        <v>0.3067566378849598</v>
+        <v>0.2720656903904424</v>
       </c>
       <c r="O11">
-        <v>0.3067566378849598</v>
+        <v>0.2797505916675149</v>
       </c>
       <c r="P11">
-        <v>0.3067566378849598</v>
+        <v>0.2797652268622641</v>
       </c>
       <c r="Q11">
-        <v>0.3067566378849598</v>
+        <v>0.2798508316514715</v>
       </c>
       <c r="R11">
-        <v>0.3067566378849598</v>
+        <v>0.2822272115275868</v>
       </c>
       <c r="S11">
-        <v>0.3067566378849598</v>
+        <v>0.2825428094155524</v>
       </c>
       <c r="T11">
-        <v>0.3134725321820602</v>
+        <v>0.2978424097789731</v>
       </c>
       <c r="U11">
-        <v>0.3134725321820602</v>
+        <v>0.297844323692618</v>
       </c>
       <c r="V11">
-        <v>0.450095265069401</v>
+        <v>0.4156551159461362</v>
       </c>
       <c r="W11">
-        <v>0.4635262610366072</v>
+        <v>0.4362536912006098</v>
       </c>
       <c r="X11">
-        <v>0.4635262610366072</v>
+        <v>0.4376457166449828</v>
       </c>
       <c r="Y11">
-        <v>0.48942275575017</v>
+        <v>0.4680809806208576</v>
       </c>
       <c r="Z11">
-        <v>0.5562843876434844</v>
+        <v>0.530842372180236</v>
       </c>
       <c r="AA11">
-        <v>0.6112372173135185</v>
+        <v>0.5842063715534909</v>
       </c>
       <c r="AB11">
-        <v>0.6112372173135185</v>
+        <v>0.5924972726123419</v>
       </c>
       <c r="AC11">
-        <v>0.6164884627843158</v>
+        <v>0.6066410993574209</v>
       </c>
       <c r="AD11">
-        <v>0.6545788538540878</v>
+        <v>0.6466987270427398</v>
       </c>
       <c r="AE11">
-        <v>0.6751094061807126</v>
+        <v>0.6728996554311429</v>
       </c>
       <c r="AF11">
-        <v>0.7706495817401282</v>
+        <v>0.7582916623206144</v>
       </c>
       <c r="AG11">
-        <v>0.7706495817401282</v>
+        <v>0.762203789332316</v>
       </c>
       <c r="AH11">
-        <v>0.9508310303642991</v>
+        <v>0.9143873360600538</v>
       </c>
       <c r="AI11">
-        <v>0.9508310303642991</v>
+        <v>0.9145378972251759</v>
       </c>
       <c r="AJ11">
-        <v>0.966509359309663</v>
+        <v>0.9369098724381499</v>
       </c>
       <c r="AK11">
-        <v>0.966509359309663</v>
+        <v>0.9370087607500167</v>
       </c>
       <c r="AL11">
-        <v>0.966509359309663</v>
+        <v>0.9382742114063797</v>
       </c>
       <c r="AM11">
-        <v>0.9783809549794141</v>
+        <v>0.9576422434126249</v>
       </c>
       <c r="AN11">
-        <v>0.9914804923027933</v>
+        <v>0.9779792602995042</v>
       </c>
       <c r="AO11">
-        <v>0.9914804923027933</v>
+        <v>0.9780172266612723</v>
       </c>
       <c r="AP11">
-        <v>0.9914804923027933</v>
+        <v>0.9832771446227533</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3618,16 +3618,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5311871414239212</v>
+        <v>0.5138739359002846</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5955860736464588</v>
+        <v>0.5423421025517461</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3700,16 +3700,16 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5114736435649256</v>
+        <v>0.5196548031030683</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -3741,16 +3741,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5222690242189132</v>
+        <v>0.588198952226455</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -3782,16 +3782,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5427108704653255</v>
+        <v>0.504369507099428</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -3823,16 +3823,16 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5075451106627422</v>
+        <v>0.5287588635953633</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>60</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5437418252588427</v>
+        <v>0.5239444750402056</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3905,16 +3905,16 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5029296265599819</v>
+        <v>0.5926856903872726</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -3946,16 +3946,16 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5305062842439738</v>
+        <v>0.5220447316677084</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5562843876434844</v>
+        <v>0.530842372180236</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4082,16 +4082,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7031756575546299</v>
+        <v>0.7174899945719714</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -4123,16 +4123,16 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7130686077973556</v>
+        <v>0.7125473777244087</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -4164,16 +4164,16 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7397306395388724</v>
+        <v>0.7188904100935471</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.774040145154524</v>
+        <v>0.7295071811025169</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4246,16 +4246,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7184636366148212</v>
+        <v>0.7806921911270699</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -4287,16 +4287,16 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7093425114649566</v>
+        <v>0.7552212083076263</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>60</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7669588472444013</v>
+        <v>0.7525476084329112</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -4369,16 +4369,16 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7101044682076406</v>
+        <v>0.7453229406142324</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -4410,16 +4410,16 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7078144480865995</v>
+        <v>0.7316152975874726</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7706495817401282</v>
+        <v>0.7582916623206144</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -4546,16 +4546,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8331319312829895</v>
+        <v>0.8404581660284151</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8383487688938911</v>
+        <v>0.815254413447149</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8507418797707043</v>
+        <v>0.8032072737648037</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8442205130415887</v>
+        <v>0.8118923458915439</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -4710,16 +4710,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8286396902976977</v>
+        <v>0.8324954744551802</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9549699892710076</v>
+        <v>0.9080664906012925</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.952439897985647</v>
+        <v>0.908648309589275</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -4833,16 +4833,16 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8312517038473881</v>
+        <v>0.8548489821859735</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8473758639441606</v>
+        <v>0.823292964334513</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9508310303642991</v>
+        <v>0.9143873360600538</v>
       </c>
       <c r="G11">
         <v>24</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9687863543041283</v>
+        <v>0.9328742434134409</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.985517445098177</v>
+        <v>0.9528985437846972</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9727261867800165</v>
+        <v>0.9294425212148542</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9322374163763878</v>
+        <v>0.902353244009677</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -5174,16 +5174,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9122488055450126</v>
+        <v>0.9738998494055372</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9549699892710076</v>
+        <v>0.9080664906012925</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.952439897985647</v>
+        <v>0.908648309589275</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9838428122181473</v>
+        <v>0.9342504528532142</v>
       </c>
       <c r="G9">
         <v>24</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9798179989505201</v>
+        <v>0.9390297891015991</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9508310303642991</v>
+        <v>0.9143873360600538</v>
       </c>
       <c r="G11">
         <v>24</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
@@ -1297,103 +1297,103 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.005490417002733922</v>
       </c>
       <c r="M6">
-        <v>0.1786757011141007</v>
+        <v>0.1778104524237681</v>
       </c>
       <c r="N6">
-        <v>0.1654454902998969</v>
+        <v>0.1646443097649342</v>
       </c>
       <c r="O6">
-        <v>0.1224515099126162</v>
+        <v>0.1218585305207879</v>
       </c>
       <c r="P6">
-        <v>0.01915912245858102</v>
+        <v>0.01906634316340074</v>
       </c>
       <c r="Q6">
-        <v>0.01863768331423318</v>
+        <v>0.01854742912198476</v>
       </c>
       <c r="R6">
-        <v>0.0005079020413086957</v>
+        <v>0.0005054424926777436</v>
       </c>
       <c r="S6">
-        <v>0.002046549942462426</v>
+        <v>0.002036639391411699</v>
       </c>
       <c r="T6">
-        <v>0.00867493729260394</v>
+        <v>0.008632928345196203</v>
       </c>
       <c r="U6">
-        <v>0.01127093349295471</v>
+        <v>0.01121635326529758</v>
       </c>
       <c r="V6">
-        <v>0.09417741700176747</v>
+        <v>0.09372135674168966</v>
       </c>
       <c r="W6">
-        <v>0.02592704050565183</v>
+        <v>0.02580148712765004</v>
       </c>
       <c r="X6">
-        <v>0.000832519194703629</v>
+        <v>0.0008284876664185712</v>
       </c>
       <c r="Y6">
-        <v>0.0322085347712561</v>
+        <v>0.03205256284919512</v>
       </c>
       <c r="Z6">
-        <v>0.002047968375946144</v>
+        <v>0.002038050956039123</v>
       </c>
       <c r="AA6">
-        <v>0.09862888140898696</v>
+        <v>0.09815126464332728</v>
       </c>
       <c r="AB6">
-        <v>0.003698953566135834</v>
+        <v>0.003681041143188876</v>
       </c>
       <c r="AC6">
-        <v>0.04810432976197451</v>
+        <v>0.04787138141999882</v>
       </c>
       <c r="AD6">
-        <v>0.008924893826378453</v>
+        <v>0.008881674448217457</v>
       </c>
       <c r="AE6">
-        <v>0.01804910698303881</v>
+        <v>0.01796170300991112</v>
       </c>
       <c r="AF6">
-        <v>0.03110421237440046</v>
+        <v>0.03095358820528868</v>
       </c>
       <c r="AG6">
-        <v>0.004579049175052191</v>
+        <v>0.004556874831943542</v>
       </c>
       <c r="AH6">
-        <v>0.07874711259148717</v>
+        <v>0.07836577458294762</v>
       </c>
       <c r="AI6">
-        <v>0.0006322414137134375</v>
+        <v>0.0006291797435938936</v>
       </c>
       <c r="AJ6">
-        <v>0.003355787207144173</v>
+        <v>0.003339536589584475</v>
       </c>
       <c r="AK6">
-        <v>2.272943751283915E-06</v>
+        <v>2.26193687350627E-06</v>
       </c>
       <c r="AL6">
-        <v>0.0003312660126691367</v>
+        <v>0.0003296618354820516</v>
       </c>
       <c r="AM6">
-        <v>0.01184254774644472</v>
+        <v>0.01178519943963008</v>
       </c>
       <c r="AN6">
-        <v>7.169007496951954E-05</v>
+        <v>7.134291112412565E-05</v>
       </c>
       <c r="AO6">
-        <v>0.0002712854167135838</v>
+        <v>0.0002699716994590599</v>
       </c>
       <c r="AP6">
-        <v>0.006329735716960435</v>
+        <v>0.006299083560539044</v>
       </c>
       <c r="AQ6">
-        <v>0.00261231949255713</v>
+        <v>0.002599669165704784</v>
       </c>
       <c r="AR6">
-        <v>0.0006510045695393407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -2784,103 +2784,103 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.005490417002733922</v>
       </c>
       <c r="M6">
-        <v>0.1786757011141007</v>
+        <v>0.183300869426502</v>
       </c>
       <c r="N6">
-        <v>0.3441211914139976</v>
+        <v>0.3479451791914362</v>
       </c>
       <c r="O6">
-        <v>0.4665727013266138</v>
+        <v>0.4698037097122241</v>
       </c>
       <c r="P6">
-        <v>0.4857318237851948</v>
+        <v>0.4888700528756248</v>
       </c>
       <c r="Q6">
-        <v>0.504369507099428</v>
+        <v>0.5074174819976096</v>
       </c>
       <c r="R6">
-        <v>0.5048774091407366</v>
+        <v>0.5079229244902873</v>
       </c>
       <c r="S6">
-        <v>0.5069239590831991</v>
+        <v>0.5099595638816991</v>
       </c>
       <c r="T6">
-        <v>0.515598896375803</v>
+        <v>0.5185924922268953</v>
       </c>
       <c r="U6">
-        <v>0.5268698298687577</v>
+        <v>0.5298088454921929</v>
       </c>
       <c r="V6">
-        <v>0.6210472468705253</v>
+        <v>0.6235302022338826</v>
       </c>
       <c r="W6">
-        <v>0.6469742873761771</v>
+        <v>0.6493316893615326</v>
       </c>
       <c r="X6">
-        <v>0.6478068065708807</v>
+        <v>0.6501601770279511</v>
       </c>
       <c r="Y6">
-        <v>0.6800153413421368</v>
+        <v>0.6822127398771463</v>
       </c>
       <c r="Z6">
-        <v>0.6820633097180829</v>
+        <v>0.6842507908331854</v>
       </c>
       <c r="AA6">
-        <v>0.7806921911270699</v>
+        <v>0.7824020554765126</v>
       </c>
       <c r="AB6">
-        <v>0.7843911446932057</v>
+        <v>0.7860830966197015</v>
       </c>
       <c r="AC6">
-        <v>0.8324954744551802</v>
+        <v>0.8339544780397004</v>
       </c>
       <c r="AD6">
-        <v>0.8414203682815586</v>
+        <v>0.8428361524879178</v>
       </c>
       <c r="AE6">
-        <v>0.8594694752645975</v>
+        <v>0.8607978554978288</v>
       </c>
       <c r="AF6">
-        <v>0.8905736876389979</v>
+        <v>0.8917514437031175</v>
       </c>
       <c r="AG6">
-        <v>0.8951527368140501</v>
+        <v>0.8963083185350611</v>
       </c>
       <c r="AH6">
-        <v>0.9738998494055372</v>
+        <v>0.9746740931180087</v>
       </c>
       <c r="AI6">
-        <v>0.9745320908192506</v>
+        <v>0.9753032728616026</v>
       </c>
       <c r="AJ6">
-        <v>0.9778878780263948</v>
+        <v>0.9786428094511871</v>
       </c>
       <c r="AK6">
-        <v>0.9778901509701461</v>
+        <v>0.9786450713880606</v>
       </c>
       <c r="AL6">
-        <v>0.9782214169828152</v>
+        <v>0.9789747332235426</v>
       </c>
       <c r="AM6">
-        <v>0.9900639647292599</v>
+        <v>0.9907599326631726</v>
       </c>
       <c r="AN6">
-        <v>0.9901356548042295</v>
+        <v>0.9908312755742967</v>
       </c>
       <c r="AO6">
-        <v>0.9904069402209431</v>
+        <v>0.9911012472737558</v>
       </c>
       <c r="AP6">
-        <v>0.9967366759379035</v>
+        <v>0.9974003308342949</v>
       </c>
       <c r="AQ6">
-        <v>0.9993489954304606</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.504369507099428</v>
+        <v>0.5074174819976096</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7806921911270699</v>
+        <v>0.7824020554765126</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8324954744551802</v>
+        <v>0.8339544780397004</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9738998494055372</v>
+        <v>0.9746740931180087</v>
       </c>
       <c r="G6">
         <v>23</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
@@ -1297,103 +1297,103 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.005490417002733922</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1778104524237681</v>
+        <v>0.1786757011141007</v>
       </c>
       <c r="N6">
-        <v>0.1646443097649342</v>
+        <v>0.1654454902998969</v>
       </c>
       <c r="O6">
-        <v>0.1218585305207879</v>
+        <v>0.1224515099126162</v>
       </c>
       <c r="P6">
-        <v>0.01906634316340074</v>
+        <v>0.01915912245858102</v>
       </c>
       <c r="Q6">
-        <v>0.01854742912198476</v>
+        <v>0.01863768331423318</v>
       </c>
       <c r="R6">
-        <v>0.0005054424926777436</v>
+        <v>0.0005079020413086957</v>
       </c>
       <c r="S6">
-        <v>0.002036639391411699</v>
+        <v>0.002046549942462426</v>
       </c>
       <c r="T6">
-        <v>0.008632928345196203</v>
+        <v>0.00867493729260394</v>
       </c>
       <c r="U6">
-        <v>0.01121635326529758</v>
+        <v>0.01127093349295471</v>
       </c>
       <c r="V6">
-        <v>0.09372135674168966</v>
+        <v>0.09417741700176747</v>
       </c>
       <c r="W6">
-        <v>0.02580148712765004</v>
+        <v>0.02592704050565183</v>
       </c>
       <c r="X6">
-        <v>0.0008284876664185712</v>
+        <v>0.000832519194703629</v>
       </c>
       <c r="Y6">
-        <v>0.03205256284919512</v>
+        <v>0.0322085347712561</v>
       </c>
       <c r="Z6">
-        <v>0.002038050956039123</v>
+        <v>0.002047968375946144</v>
       </c>
       <c r="AA6">
-        <v>0.09815126464332728</v>
+        <v>0.09862888140898696</v>
       </c>
       <c r="AB6">
-        <v>0.003681041143188876</v>
+        <v>0.003698953566135834</v>
       </c>
       <c r="AC6">
-        <v>0.04787138141999882</v>
+        <v>0.04810432976197451</v>
       </c>
       <c r="AD6">
-        <v>0.008881674448217457</v>
+        <v>0.008924893826378453</v>
       </c>
       <c r="AE6">
-        <v>0.01796170300991112</v>
+        <v>0.01804910698303881</v>
       </c>
       <c r="AF6">
-        <v>0.03095358820528868</v>
+        <v>0.03110421237440046</v>
       </c>
       <c r="AG6">
-        <v>0.004556874831943542</v>
+        <v>0.004579049175052191</v>
       </c>
       <c r="AH6">
-        <v>0.07836577458294762</v>
+        <v>0.07874711259148717</v>
       </c>
       <c r="AI6">
-        <v>0.0006291797435938936</v>
+        <v>0.0006322414137134375</v>
       </c>
       <c r="AJ6">
-        <v>0.003339536589584475</v>
+        <v>0.003355787207144173</v>
       </c>
       <c r="AK6">
-        <v>2.26193687350627E-06</v>
+        <v>2.272943751283915E-06</v>
       </c>
       <c r="AL6">
-        <v>0.0003296618354820516</v>
+        <v>0.0003312660126691367</v>
       </c>
       <c r="AM6">
-        <v>0.01178519943963008</v>
+        <v>0.01184254774644472</v>
       </c>
       <c r="AN6">
-        <v>7.134291112412565E-05</v>
+        <v>7.169007496951954E-05</v>
       </c>
       <c r="AO6">
-        <v>0.0002699716994590599</v>
+        <v>0.0002712854167135838</v>
       </c>
       <c r="AP6">
-        <v>0.006299083560539044</v>
+        <v>0.006329735716960435</v>
       </c>
       <c r="AQ6">
-        <v>0.002599669165704784</v>
+        <v>0.00261231949255713</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.0006510045695393407</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -2784,103 +2784,103 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.005490417002733922</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.183300869426502</v>
+        <v>0.1786757011141007</v>
       </c>
       <c r="N6">
-        <v>0.3479451791914362</v>
+        <v>0.3441211914139976</v>
       </c>
       <c r="O6">
-        <v>0.4698037097122241</v>
+        <v>0.4665727013266138</v>
       </c>
       <c r="P6">
-        <v>0.4888700528756248</v>
+        <v>0.4857318237851948</v>
       </c>
       <c r="Q6">
-        <v>0.5074174819976096</v>
+        <v>0.504369507099428</v>
       </c>
       <c r="R6">
-        <v>0.5079229244902873</v>
+        <v>0.5048774091407366</v>
       </c>
       <c r="S6">
-        <v>0.5099595638816991</v>
+        <v>0.5069239590831991</v>
       </c>
       <c r="T6">
-        <v>0.5185924922268953</v>
+        <v>0.515598896375803</v>
       </c>
       <c r="U6">
-        <v>0.5298088454921929</v>
+        <v>0.5268698298687577</v>
       </c>
       <c r="V6">
-        <v>0.6235302022338826</v>
+        <v>0.6210472468705253</v>
       </c>
       <c r="W6">
-        <v>0.6493316893615326</v>
+        <v>0.6469742873761771</v>
       </c>
       <c r="X6">
-        <v>0.6501601770279511</v>
+        <v>0.6478068065708807</v>
       </c>
       <c r="Y6">
-        <v>0.6822127398771463</v>
+        <v>0.6800153413421368</v>
       </c>
       <c r="Z6">
-        <v>0.6842507908331854</v>
+        <v>0.6820633097180829</v>
       </c>
       <c r="AA6">
-        <v>0.7824020554765126</v>
+        <v>0.7806921911270699</v>
       </c>
       <c r="AB6">
-        <v>0.7860830966197015</v>
+        <v>0.7843911446932057</v>
       </c>
       <c r="AC6">
-        <v>0.8339544780397004</v>
+        <v>0.8324954744551802</v>
       </c>
       <c r="AD6">
-        <v>0.8428361524879178</v>
+        <v>0.8414203682815586</v>
       </c>
       <c r="AE6">
-        <v>0.8607978554978288</v>
+        <v>0.8594694752645975</v>
       </c>
       <c r="AF6">
-        <v>0.8917514437031175</v>
+        <v>0.8905736876389979</v>
       </c>
       <c r="AG6">
-        <v>0.8963083185350611</v>
+        <v>0.8951527368140501</v>
       </c>
       <c r="AH6">
-        <v>0.9746740931180087</v>
+        <v>0.9738998494055372</v>
       </c>
       <c r="AI6">
-        <v>0.9753032728616026</v>
+        <v>0.9745320908192506</v>
       </c>
       <c r="AJ6">
-        <v>0.9786428094511871</v>
+        <v>0.9778878780263948</v>
       </c>
       <c r="AK6">
-        <v>0.9786450713880606</v>
+        <v>0.9778901509701461</v>
       </c>
       <c r="AL6">
-        <v>0.9789747332235426</v>
+        <v>0.9782214169828152</v>
       </c>
       <c r="AM6">
-        <v>0.9907599326631726</v>
+        <v>0.9900639647292599</v>
       </c>
       <c r="AN6">
-        <v>0.9908312755742967</v>
+        <v>0.9901356548042295</v>
       </c>
       <c r="AO6">
-        <v>0.9911012472737558</v>
+        <v>0.9904069402209431</v>
       </c>
       <c r="AP6">
-        <v>0.9974003308342949</v>
+        <v>0.9967366759379035</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9993489954304606</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5074174819976096</v>
+        <v>0.504369507099428</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7824020554765126</v>
+        <v>0.7806921911270699</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8339544780397004</v>
+        <v>0.8324954744551802</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9746740931180087</v>
+        <v>0.9738998494055372</v>
       </c>
       <c r="G6">
         <v>23</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/60_11R22.xlsx
@@ -183,40 +183,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -226,9 +229,6 @@
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -764,100 +764,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1377531619801652</v>
+        <v>0.1859179992662418</v>
       </c>
       <c r="N2">
-        <v>0.0002319426830787245</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3042291656524011</v>
+        <v>0.4731567675752307</v>
       </c>
       <c r="P2">
-        <v>0.003411002167705636</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01780031285624174</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.002511147539177135</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001096633862132395</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002733430917574621</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.04410713824180821</v>
+        <v>0.02434054712725794</v>
       </c>
       <c r="V2">
-        <v>0.01538253435154046</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0993400432223335</v>
+        <v>0.1196397569038763</v>
       </c>
       <c r="X2">
-        <v>0.001733258177752026</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01875636375177725</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.008361527981705277</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.06004233118657825</v>
+        <v>0.05183523160583063</v>
       </c>
       <c r="AB2">
-        <v>0.05444034569682233</v>
+        <v>0.04216952978293975</v>
       </c>
       <c r="AC2">
-        <v>0.01561922586345793</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.008095957433879863</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.04481264246228358</v>
+        <v>0.02555782865045644</v>
       </c>
       <c r="AF2">
-        <v>0.005082217371291727</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01728164697008704</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.07005221304364712</v>
+        <v>0.06910634619363516</v>
       </c>
       <c r="AI2">
-        <v>0.03479654689933541</v>
+        <v>0.008275992894531362</v>
       </c>
       <c r="AJ2">
-        <v>0.00502815030120207</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001886900433956708</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.000750581607463658</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.006245293591015495</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.004526374871873207</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.287185195168939E-08</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.005293075167521324</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.00635090392824317</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.00224787691409595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -898,100 +898,100 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.08457250662181431</v>
+        <v>0.09708011582087657</v>
       </c>
       <c r="N3">
-        <v>0.009719235059112647</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2871496132964586</v>
+        <v>0.4574485539965081</v>
       </c>
       <c r="P3">
-        <v>0.006844390927714629</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.005955146104945607</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001155977951904309</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0008186382212923966</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.00123632590379427</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.04446902074670744</v>
+        <v>0.02573922835612504</v>
       </c>
       <c r="V3">
-        <v>0.0005110366385942267</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.09991021107940756</v>
+        <v>0.124364662882058</v>
       </c>
       <c r="X3">
-        <v>0.02533365155180051</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.006170137912919837</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.008127180105768187</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02257921320634892</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07600066980982052</v>
+        <v>0.08183150508227119</v>
       </c>
       <c r="AC3">
-        <v>0.0003622031928065767</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03163221939319789</v>
+        <v>0.002903587493879077</v>
       </c>
       <c r="AE3">
-        <v>0.0372539431170129</v>
+        <v>0.0129041834716855</v>
       </c>
       <c r="AF3">
-        <v>0.004192430527455261</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.06126066207827222</v>
+        <v>0.05561021259710384</v>
       </c>
       <c r="AH3">
-        <v>0.02775410632781265</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.1098900240097356</v>
+        <v>0.1421179502994927</v>
       </c>
       <c r="AJ3">
-        <v>0.002606664000882658</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.01915609277378155</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0007082683104214916</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0006857765348885152</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.01242101466806102</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0004830368848384983</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0007805529357986644</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005657522861349884</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004602527245280466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -1032,100 +1032,100 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.185913813103198</v>
+        <v>0.2869802970211871</v>
       </c>
       <c r="N4">
-        <v>0.05271207212555132</v>
+        <v>0.04180461676120504</v>
       </c>
       <c r="O4">
-        <v>0.1948833354195419</v>
+        <v>0.3034899065756578</v>
       </c>
       <c r="P4">
-        <v>0.003062509198281188</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.009135489992745232</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.499150404065134E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0005644004144444916</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001472430918410208</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.04863592675824966</v>
+        <v>0.03430192418427791</v>
       </c>
       <c r="V4">
-        <v>0.02325983366860567</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.08583053681652869</v>
+        <v>0.1027635956017234</v>
       </c>
       <c r="X4">
-        <v>0.00252387920427389</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01306009005091993</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002108435638860065</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.05928897672838954</v>
+        <v>0.05391029231897774</v>
       </c>
       <c r="AB4">
-        <v>0.03642368855150675</v>
+        <v>0.01182366085333842</v>
       </c>
       <c r="AC4">
-        <v>0.02560156718281032</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.003162121559286415</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.05555317492915975</v>
+        <v>0.04703404775400364</v>
       </c>
       <c r="AF4">
-        <v>0.01522757745543032</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01695819249539269</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.09404947749922746</v>
+        <v>0.117891658929629</v>
       </c>
       <c r="AI4">
-        <v>0.02667230162260687</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01484441826113343</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.00367635792633211</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001874769955872187</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.009260870979330534</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003931986033282021</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.352582633482202E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002992333874673776</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.006286292383533729</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001013795165747966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -1166,100 +1166,100 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1089376336892066</v>
+        <v>0.13790370404698</v>
       </c>
       <c r="N5">
-        <v>0.003460973383102741</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2920876544476066</v>
+        <v>0.4578659967894611</v>
       </c>
       <c r="P5">
-        <v>0.005455383103800835</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0187911846593974</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.003167175426139229</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>5.201449235441082E-10</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.417959712673642E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03826605877398412</v>
+        <v>0.01444076886432326</v>
       </c>
       <c r="V5">
-        <v>0.002630477573356998</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1153782310525888</v>
+        <v>0.1491553997360423</v>
       </c>
       <c r="X5">
-        <v>0.006656496448318329</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.008484203085197824</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0148391604365933</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03074055563858205</v>
+        <v>0.001293747492044546</v>
       </c>
       <c r="AB5">
-        <v>0.08058781326737044</v>
+        <v>0.08837669059949577</v>
       </c>
       <c r="AC5">
-        <v>0.006204950163751749</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.02447021839527631</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.05170999622999889</v>
+        <v>0.03792726935228849</v>
       </c>
       <c r="AF5">
-        <v>2.325886674201987E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03897300481327341</v>
+        <v>0.01567580053202151</v>
       </c>
       <c r="AH5">
-        <v>0.05148556741818553</v>
+        <v>0.03753519319041899</v>
       </c>
       <c r="AI5">
-        <v>0.06424474972351045</v>
+        <v>0.05982542939692412</v>
       </c>
       <c r="AJ5">
-        <v>0.004850958775573553</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.006340584338381911</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001270266575318844</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001982054313488899</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.007897120453517731</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.314837059413304E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.002195725845056544</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.006191986422027673</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00260016117285337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1300,100 +1300,100 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1786757011141007</v>
+        <v>0.2565394674208354</v>
       </c>
       <c r="N6">
-        <v>0.1654454902998969</v>
+        <v>0.2337107791368202</v>
       </c>
       <c r="O6">
-        <v>0.1224515099126162</v>
+        <v>0.1595247975123572</v>
       </c>
       <c r="P6">
-        <v>0.01915912245858102</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01863768331423318</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0005079020413086957</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002046549942462426</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00867493729260394</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01127093349295471</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.09417741700176747</v>
+        <v>0.1107379366951364</v>
       </c>
       <c r="W6">
-        <v>0.02592704050565183</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.000832519194703629</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0322085347712561</v>
+        <v>0.003810819991113561</v>
       </c>
       <c r="Z6">
-        <v>0.002047968375946144</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.09862888140898696</v>
+        <v>0.1184189249111898</v>
       </c>
       <c r="AB6">
-        <v>0.003698953566135834</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.04810432976197451</v>
+        <v>0.03123896561674014</v>
       </c>
       <c r="AD6">
-        <v>0.008924893826378453</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01804910698303881</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03110421237440046</v>
+        <v>0.001905315073851884</v>
       </c>
       <c r="AG6">
-        <v>0.004579049175052191</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.07874711259148717</v>
+        <v>0.08411299364195546</v>
       </c>
       <c r="AI6">
-        <v>0.0006322414137134375</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003355787207144173</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.272943751283915E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003312660126691367</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01184254774644472</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>7.169007496951954E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002712854167135838</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.006329735716960435</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00261231949255713</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0006510045695393407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1431,100 +1431,100 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02837503411333008</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.06821546778835849</v>
+        <v>0.0816239266833894</v>
       </c>
       <c r="N7">
-        <v>0.1420588935183306</v>
+        <v>0.2393451510110338</v>
       </c>
       <c r="O7">
-        <v>0.0229669163229274</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0002668793046895524</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0002590190178715127</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.404916381074246E-05</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0001151022180865232</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.017748896438373</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0006345937343309589</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.1195004689356782</v>
+        <v>0.1911629017599045</v>
       </c>
       <c r="W7">
-        <v>0.03529554681480033</v>
+        <v>0.01131069040822762</v>
       </c>
       <c r="X7">
-        <v>0.009865270984007097</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.04209741026282626</v>
+        <v>0.02583870316125279</v>
       </c>
       <c r="Z7">
-        <v>0.04134531497794237</v>
+        <v>0.02423231250466672</v>
       </c>
       <c r="AA7">
-        <v>0.05923164921459659</v>
+        <v>0.06243550400954749</v>
       </c>
       <c r="AB7">
-        <v>0.000923741566822898</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02829887550543361</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.03349208932276394</v>
+        <v>0.007458708720555327</v>
       </c>
       <c r="AE7">
-        <v>0.04518252461577946</v>
+        <v>0.03242815927232089</v>
       </c>
       <c r="AF7">
-        <v>0.0593334644868666</v>
+        <v>0.06265296994153714</v>
       </c>
       <c r="AG7">
-        <v>0.0004085832397945892</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.1524366990538717</v>
+        <v>0.2615109725275643</v>
       </c>
       <c r="AI7">
-        <v>0.01774458765103963</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.01804694477465443</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.002389070253101914</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.003762236436606363</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.008719422062613657</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.02398157164351821</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>7.140692186650437E-05</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.00183483261245889</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0.01538343704284808</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05544700688376016</v>
+        <v>0.05216240366027806</v>
       </c>
       <c r="E8">
-        <v>0.03713221100471886</v>
+        <v>0.01463995507602774</v>
       </c>
       <c r="F8">
-        <v>0.1596299274332655</v>
+        <v>0.2656072220188259</v>
       </c>
       <c r="G8">
-        <v>0.01378162286898858</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6.280007549245903E-05</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1565,76 +1565,76 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01714306498549595</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.114083750970657</v>
+        <v>0.1722944668118113</v>
       </c>
       <c r="O8">
-        <v>0.02920179206540669</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.006140765192337181</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.03428083082759018</v>
+        <v>0.00879818829920566</v>
       </c>
       <c r="R8">
-        <v>0.05704070273249308</v>
+        <v>0.05542748894640163</v>
       </c>
       <c r="S8">
-        <v>0.05458042473306978</v>
+        <v>0.050386992980953</v>
       </c>
       <c r="T8">
-        <v>0.003105949344837635</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.02122672879795038</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.03637641063656266</v>
+        <v>0.01309150863734525</v>
       </c>
       <c r="W8">
-        <v>0.04004017999128388</v>
+        <v>0.02059765820870892</v>
       </c>
       <c r="X8">
-        <v>0.07327343988900127</v>
+        <v>0.08868431852612677</v>
       </c>
       <c r="Y8">
-        <v>3.266421104949425E-05</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.1560680369453143</v>
+        <v>0.2583097968343157</v>
       </c>
       <c r="AA8">
-        <v>0.007174359163032516</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02151009528478876</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.001432279634245869</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.002552306720021762</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.01259374744821318</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.02705159835239276</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.003022982498011318</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.0160143213100187</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1702,100 +1702,100 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1333231199823689</v>
+        <v>0.1859256117583172</v>
       </c>
       <c r="N9">
-        <v>0.007805562050949928</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1862518881955146</v>
+        <v>0.2811687055723884</v>
       </c>
       <c r="P9">
-        <v>0.002299009586706642</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.002015816325200296</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.004989350807255975</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>5.796283024742135E-05</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.0005186347865228135</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.01524982622614071</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.014844696956972</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.09663509696221653</v>
+        <v>0.119907056323783</v>
       </c>
       <c r="X9">
-        <v>0.002675832474871234</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.004727228026202425</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.02202748749929933</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.09926417767680376</v>
+        <v>0.124637976569949</v>
       </c>
       <c r="AB9">
-        <v>0.02741556292812056</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.05454493339337255</v>
+        <v>0.04416757602275915</v>
       </c>
       <c r="AD9">
-        <v>0.0007778716726089539</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.06989888223285785</v>
+        <v>0.07179636163603074</v>
       </c>
       <c r="AF9">
-        <v>0.003122711586979333</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.04556419581444172</v>
+        <v>0.02800711620806763</v>
       </c>
       <c r="AH9">
-        <v>0.06083913417032001</v>
+        <v>0.05549372577688315</v>
       </c>
       <c r="AI9">
-        <v>0.0794014706672407</v>
+        <v>0.08889587013182167</v>
       </c>
       <c r="AJ9">
-        <v>0.01293536347986436</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.007375627699283004</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.006642928479082629</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.001976151378106015</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.01753917684267948</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.002841278429046427</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.0001223203621531309</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.0122571977984194</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.00405950267815123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1833,100 +1833,100 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03105802702806259</v>
+        <v>0.002172713658479728</v>
       </c>
       <c r="M10">
-        <v>0.06928972581844355</v>
+        <v>0.08068350019372757</v>
       </c>
       <c r="N10">
-        <v>0.2064938094325463</v>
+        <v>0.362439238526269</v>
       </c>
       <c r="O10">
-        <v>0.02364763623188139</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.009921931655374156</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.0005891700114057567</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01360397760679502</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.0054518666457588</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.009274929339491363</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.006203190069465357</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.1228523065154644</v>
+        <v>0.190677051943482</v>
       </c>
       <c r="W10">
-        <v>0.02365816131301969</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>9.600105482775519E-06</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.03659043096418986</v>
+        <v>0.0135337935528771</v>
       </c>
       <c r="Z10">
-        <v>0.02758103459069596</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.06411552141700695</v>
+        <v>0.07005800171723467</v>
       </c>
       <c r="AB10">
-        <v>0.001829656174672793</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.03406597628182217</v>
+        <v>0.008349694259461906</v>
       </c>
       <c r="AD10">
-        <v>0.04537834638589372</v>
+        <v>0.03158023599704057</v>
       </c>
       <c r="AE10">
-        <v>0.02615560472520944</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0655220620218311</v>
+        <v>0.0729464061740696</v>
       </c>
       <c r="AG10">
-        <v>0.004141932959268971</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.111594891807817</v>
+        <v>0.167559363977358</v>
       </c>
       <c r="AI10">
-        <v>0.0005854983415077766</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.01774738608356543</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.0001137858998828708</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.002162907899612905</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.01466900977905226</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.007830217582677825</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>4.637355048410476E-05</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.004750038616207948</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.01306499314541</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -1967,100 +1967,100 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06631965444707476</v>
+        <v>0.06895305484148961</v>
       </c>
       <c r="M11">
-        <v>0.0173401467028428</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1884058892405248</v>
+        <v>0.3007344132068569</v>
       </c>
       <c r="O11">
-        <v>0.007684901277072531</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.46351947491738E-05</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>8.560478920743717E-05</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.002376379876115347</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0003155978879655446</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.0152996003634207</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1.913913644921436E-06</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.1178107922535183</v>
+        <v>0.1667092505727064</v>
       </c>
       <c r="W11">
-        <v>0.02059857525447349</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.001392025444372978</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.03043526397587486</v>
+        <v>0.0008263509456776012</v>
       </c>
       <c r="Z11">
-        <v>0.06276139155937834</v>
+        <v>0.06219767404916136</v>
       </c>
       <c r="AA11">
-        <v>0.05336399937325492</v>
+        <v>0.0443566755969048</v>
       </c>
       <c r="AB11">
-        <v>0.008290901058851044</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01414382674507906</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.04005762768531888</v>
+        <v>0.01909445901727</v>
       </c>
       <c r="AE11">
-        <v>0.02620092838840313</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.08539200688947148</v>
+        <v>0.105162016185909</v>
       </c>
       <c r="AG11">
-        <v>0.003912127011701631</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.1521835467277378</v>
+        <v>0.2319661055840242</v>
       </c>
       <c r="AI11">
-        <v>0.0001505611651220034</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.02237197521297403</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>9.888831186681814E-05</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.001265450656362986</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.01936803200624526</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.02033701688687929</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3.796636176807554E-05</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.005259917961480967</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.01672285537724682</v>
+        <v>0</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -2251,100 +2251,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1377531619801652</v>
+        <v>0.1859179992662418</v>
       </c>
       <c r="N2">
-        <v>0.1379851046632439</v>
+        <v>0.1859179992662418</v>
       </c>
       <c r="O2">
-        <v>0.442214270315645</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="P2">
-        <v>0.4456252724833506</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="Q2">
-        <v>0.4634255853395923</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="R2">
-        <v>0.4659367328787695</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="S2">
-        <v>0.4670333667409018</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="T2">
-        <v>0.4697667976584765</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="U2">
-        <v>0.5138739359002846</v>
+        <v>0.6834153139687305</v>
       </c>
       <c r="V2">
-        <v>0.5292564702518251</v>
+        <v>0.6834153139687305</v>
       </c>
       <c r="W2">
-        <v>0.6285965134741586</v>
+        <v>0.8030550708726067</v>
       </c>
       <c r="X2">
-        <v>0.6303297716519106</v>
+        <v>0.8030550708726067</v>
       </c>
       <c r="Y2">
-        <v>0.6490861354036879</v>
+        <v>0.8030550708726067</v>
       </c>
       <c r="Z2">
-        <v>0.6574476633853932</v>
+        <v>0.8030550708726067</v>
       </c>
       <c r="AA2">
-        <v>0.7174899945719714</v>
+        <v>0.8548903024784373</v>
       </c>
       <c r="AB2">
-        <v>0.7719303402687937</v>
+        <v>0.8970598322613771</v>
       </c>
       <c r="AC2">
-        <v>0.7875495661322517</v>
+        <v>0.8970598322613771</v>
       </c>
       <c r="AD2">
-        <v>0.7956455235661315</v>
+        <v>0.8970598322613771</v>
       </c>
       <c r="AE2">
-        <v>0.8404581660284151</v>
+        <v>0.9226176609118335</v>
       </c>
       <c r="AF2">
-        <v>0.8455403833997068</v>
+        <v>0.9226176609118335</v>
       </c>
       <c r="AG2">
-        <v>0.8628220303697939</v>
+        <v>0.9226176609118335</v>
       </c>
       <c r="AH2">
-        <v>0.9328742434134409</v>
+        <v>0.9917240071054687</v>
       </c>
       <c r="AI2">
-        <v>0.9676707903127764</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9726989406139784</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9745858410479351</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9753364226553988</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9815817162464142</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9861080911182875</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9861081439901394</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9914012191576607</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9977521230859039</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -2385,97 +2385,97 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.08457250662181431</v>
+        <v>0.09708011582087657</v>
       </c>
       <c r="N3">
-        <v>0.09429174168092697</v>
+        <v>0.09708011582087657</v>
       </c>
       <c r="O3">
-        <v>0.3814413549773856</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="P3">
-        <v>0.3882857459051002</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="Q3">
-        <v>0.3942408920100458</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="R3">
-        <v>0.3953968699619501</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="S3">
-        <v>0.3962155081832425</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="T3">
-        <v>0.3974518340870368</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="U3">
-        <v>0.4419208548337442</v>
+        <v>0.5802678981735098</v>
       </c>
       <c r="V3">
-        <v>0.4424318914723385</v>
+        <v>0.5802678981735098</v>
       </c>
       <c r="W3">
-        <v>0.5423421025517461</v>
+        <v>0.7046325610555677</v>
       </c>
       <c r="X3">
-        <v>0.5676757541035466</v>
+        <v>0.7046325610555677</v>
       </c>
       <c r="Y3">
-        <v>0.5738458920164665</v>
+        <v>0.7046325610555677</v>
       </c>
       <c r="Z3">
-        <v>0.5819730721222347</v>
+        <v>0.7046325610555677</v>
       </c>
       <c r="AA3">
-        <v>0.6045522853285836</v>
+        <v>0.7046325610555677</v>
       </c>
       <c r="AB3">
-        <v>0.6805529551384042</v>
+        <v>0.7864640661378389</v>
       </c>
       <c r="AC3">
-        <v>0.6809151583312107</v>
+        <v>0.7864640661378389</v>
       </c>
       <c r="AD3">
-        <v>0.7125473777244087</v>
+        <v>0.789367653631718</v>
       </c>
       <c r="AE3">
-        <v>0.7498013208414216</v>
+        <v>0.8022718371034036</v>
       </c>
       <c r="AF3">
-        <v>0.7539937513688768</v>
+        <v>0.8022718371034036</v>
       </c>
       <c r="AG3">
-        <v>0.815254413447149</v>
+        <v>0.8578820497005074</v>
       </c>
       <c r="AH3">
-        <v>0.8430085197749616</v>
+        <v>0.8578820497005074</v>
       </c>
       <c r="AI3">
-        <v>0.9528985437846972</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9555052077855798</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9746613005593614</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9753695688697829</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9760553454046714</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9884763600727324</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.988959396957571</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9897399498933697</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9953974727547196</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>1</v>
@@ -2519,97 +2519,97 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.185913813103198</v>
+        <v>0.2869802970211871</v>
       </c>
       <c r="N4">
-        <v>0.2386258852287493</v>
+        <v>0.3287849137823922</v>
       </c>
       <c r="O4">
-        <v>0.4335092206482912</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="P4">
-        <v>0.4365717298465724</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="Q4">
-        <v>0.4457072198393176</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="R4">
-        <v>0.4457222113433583</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="S4">
-        <v>0.4462866117578028</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="T4">
-        <v>0.447759042676213</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="U4">
-        <v>0.4963949694344627</v>
+        <v>0.6665767445423278</v>
       </c>
       <c r="V4">
-        <v>0.5196548031030683</v>
+        <v>0.6665767445423278</v>
       </c>
       <c r="W4">
-        <v>0.605485339919597</v>
+        <v>0.7693403401440513</v>
       </c>
       <c r="X4">
-        <v>0.6080092191238708</v>
+        <v>0.7693403401440513</v>
       </c>
       <c r="Y4">
-        <v>0.6210693091747908</v>
+        <v>0.7693403401440513</v>
       </c>
       <c r="Z4">
-        <v>0.6231777448136508</v>
+        <v>0.7693403401440513</v>
       </c>
       <c r="AA4">
-        <v>0.6824667215420404</v>
+        <v>0.823250632463029</v>
       </c>
       <c r="AB4">
-        <v>0.7188904100935471</v>
+        <v>0.8350742933163674</v>
       </c>
       <c r="AC4">
-        <v>0.7444919772763575</v>
+        <v>0.8350742933163674</v>
       </c>
       <c r="AD4">
-        <v>0.7476540988356439</v>
+        <v>0.8350742933163674</v>
       </c>
       <c r="AE4">
-        <v>0.8032072737648037</v>
+        <v>0.8821083410703711</v>
       </c>
       <c r="AF4">
-        <v>0.8184348512202341</v>
+        <v>0.8821083410703711</v>
       </c>
       <c r="AG4">
-        <v>0.8353930437156267</v>
+        <v>0.8821083410703711</v>
       </c>
       <c r="AH4">
-        <v>0.9294425212148542</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9561148228374611</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9709592410985945</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9746355990249267</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9765103689807989</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9857712399601294</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9897032259934114</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9897075785760449</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9926999124507186</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9989862048342524</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>1</v>
@@ -2653,97 +2653,97 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1089376336892066</v>
+        <v>0.13790370404698</v>
       </c>
       <c r="N5">
-        <v>0.1123986070723093</v>
+        <v>0.13790370404698</v>
       </c>
       <c r="O5">
-        <v>0.404486261519916</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="P5">
-        <v>0.4099416446237168</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="Q5">
-        <v>0.4287328292831142</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="R5">
-        <v>0.4319000047092534</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="S5">
-        <v>0.4319000052293983</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="T5">
-        <v>0.4319241848265251</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="U5">
-        <v>0.4701902436005092</v>
+        <v>0.6102104697007643</v>
       </c>
       <c r="V5">
-        <v>0.4728207211738662</v>
+        <v>0.6102104697007643</v>
       </c>
       <c r="W5">
-        <v>0.588198952226455</v>
+        <v>0.7593658694368066</v>
       </c>
       <c r="X5">
-        <v>0.5948554486747734</v>
+        <v>0.7593658694368066</v>
       </c>
       <c r="Y5">
-        <v>0.6033396517599712</v>
+        <v>0.7593658694368066</v>
       </c>
       <c r="Z5">
-        <v>0.6181788121965645</v>
+        <v>0.7593658694368066</v>
       </c>
       <c r="AA5">
-        <v>0.6489193678351465</v>
+        <v>0.7606596169288512</v>
       </c>
       <c r="AB5">
-        <v>0.7295071811025169</v>
+        <v>0.8490363075283469</v>
       </c>
       <c r="AC5">
-        <v>0.7357121312662687</v>
+        <v>0.8490363075283469</v>
       </c>
       <c r="AD5">
-        <v>0.760182349661545</v>
+        <v>0.8490363075283469</v>
       </c>
       <c r="AE5">
-        <v>0.8118923458915439</v>
+        <v>0.8869635768806354</v>
       </c>
       <c r="AF5">
-        <v>0.8118946717782181</v>
+        <v>0.8869635768806354</v>
       </c>
       <c r="AG5">
-        <v>0.8508676765914914</v>
+        <v>0.902639377412657</v>
       </c>
       <c r="AH5">
-        <v>0.902353244009677</v>
+        <v>0.940174570603076</v>
       </c>
       <c r="AI5">
-        <v>0.9665979937331874</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.971448952508761</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9777895368471429</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9790598034224617</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9810418577359505</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9889389781894683</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9890121265600624</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.991207852405119</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9973998388271467</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>1</v>
@@ -2787,97 +2787,97 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1786757011141007</v>
+        <v>0.2565394674208354</v>
       </c>
       <c r="N6">
-        <v>0.3441211914139976</v>
+        <v>0.4902502465576556</v>
       </c>
       <c r="O6">
-        <v>0.4665727013266138</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="P6">
-        <v>0.4857318237851948</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="Q6">
-        <v>0.504369507099428</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="R6">
-        <v>0.5048774091407366</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="S6">
-        <v>0.5069239590831991</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="T6">
-        <v>0.515598896375803</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="U6">
-        <v>0.5268698298687577</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="V6">
-        <v>0.6210472468705253</v>
+        <v>0.7605129807651493</v>
       </c>
       <c r="W6">
-        <v>0.6469742873761771</v>
+        <v>0.7605129807651493</v>
       </c>
       <c r="X6">
-        <v>0.6478068065708807</v>
+        <v>0.7605129807651493</v>
       </c>
       <c r="Y6">
-        <v>0.6800153413421368</v>
+        <v>0.7643238007562628</v>
       </c>
       <c r="Z6">
-        <v>0.6820633097180829</v>
+        <v>0.7643238007562628</v>
       </c>
       <c r="AA6">
-        <v>0.7806921911270699</v>
+        <v>0.8827427256674527</v>
       </c>
       <c r="AB6">
-        <v>0.7843911446932057</v>
+        <v>0.8827427256674527</v>
       </c>
       <c r="AC6">
-        <v>0.8324954744551802</v>
+        <v>0.9139816912841928</v>
       </c>
       <c r="AD6">
-        <v>0.8414203682815586</v>
+        <v>0.9139816912841928</v>
       </c>
       <c r="AE6">
-        <v>0.8594694752645975</v>
+        <v>0.9139816912841928</v>
       </c>
       <c r="AF6">
-        <v>0.8905736876389979</v>
+        <v>0.9158870063580447</v>
       </c>
       <c r="AG6">
-        <v>0.8951527368140501</v>
+        <v>0.9158870063580447</v>
       </c>
       <c r="AH6">
-        <v>0.9738998494055372</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9745320908192506</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9778878780263948</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9778901509701461</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9782214169828152</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9900639647292599</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9901356548042295</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9904069402209431</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9967366759379035</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9993489954304606</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>1</v>
@@ -2918,97 +2918,97 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02837503411333008</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.09659050190168858</v>
+        <v>0.0816239266833894</v>
       </c>
       <c r="N7">
-        <v>0.2386493954200192</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="O7">
-        <v>0.2616163117429466</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="P7">
-        <v>0.2618831910476362</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="Q7">
-        <v>0.2621422100655077</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="R7">
-        <v>0.2621562592293185</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="S7">
-        <v>0.262271361447405</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="T7">
-        <v>0.280020257885778</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="U7">
-        <v>0.2806548516201089</v>
+        <v>0.3209690776944232</v>
       </c>
       <c r="V7">
-        <v>0.4001553205557872</v>
+        <v>0.5121319794543278</v>
       </c>
       <c r="W7">
-        <v>0.4354508673705875</v>
+        <v>0.5234426698625554</v>
       </c>
       <c r="X7">
-        <v>0.4453161383545946</v>
+        <v>0.5234426698625554</v>
       </c>
       <c r="Y7">
-        <v>0.4874135486174209</v>
+        <v>0.5492813730238082</v>
       </c>
       <c r="Z7">
-        <v>0.5287588635953633</v>
+        <v>0.5735136855284749</v>
       </c>
       <c r="AA7">
-        <v>0.5879905128099598</v>
+        <v>0.6359491895380224</v>
       </c>
       <c r="AB7">
-        <v>0.5889142543767827</v>
+        <v>0.6359491895380224</v>
       </c>
       <c r="AC7">
-        <v>0.6172131298822163</v>
+        <v>0.6359491895380224</v>
       </c>
       <c r="AD7">
-        <v>0.6507052192049803</v>
+        <v>0.6434078982585777</v>
       </c>
       <c r="AE7">
-        <v>0.6958877438207597</v>
+        <v>0.6758360575308986</v>
       </c>
       <c r="AF7">
-        <v>0.7552212083076263</v>
+        <v>0.7384890274724357</v>
       </c>
       <c r="AG7">
-        <v>0.7556297915474208</v>
+        <v>0.7384890274724357</v>
       </c>
       <c r="AH7">
-        <v>0.9080664906012925</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9258110782523321</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9438580230269865</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9462470932800884</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9500093297166947</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9587287517793084</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9827103234228266</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9827817303446931</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9846165629571519</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -3028,97 +3028,97 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05544700688376016</v>
+        <v>0.05216240366027806</v>
       </c>
       <c r="E8">
-        <v>0.092579217888479</v>
+        <v>0.0668023587363058</v>
       </c>
       <c r="F8">
-        <v>0.2522091453217445</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="G8">
-        <v>0.2659907681907331</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="H8">
-        <v>0.2660535682662256</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="I8">
-        <v>0.2660535682662256</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="J8">
-        <v>0.2660535682662256</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="K8">
-        <v>0.2660535682662256</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="L8">
-        <v>0.2831966332517215</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="M8">
-        <v>0.2831966332517215</v>
+        <v>0.3324095807551317</v>
       </c>
       <c r="N8">
-        <v>0.3972803842223785</v>
+        <v>0.5047040475669431</v>
       </c>
       <c r="O8">
-        <v>0.4264821762877852</v>
+        <v>0.5047040475669431</v>
       </c>
       <c r="P8">
-        <v>0.4326229414801224</v>
+        <v>0.5047040475669431</v>
       </c>
       <c r="Q8">
-        <v>0.4669037723077125</v>
+        <v>0.5135022358661487</v>
       </c>
       <c r="R8">
-        <v>0.5239444750402056</v>
+        <v>0.5689297248125503</v>
       </c>
       <c r="S8">
-        <v>0.5785248997732754</v>
+        <v>0.6193167177935033</v>
       </c>
       <c r="T8">
-        <v>0.581630849118113</v>
+        <v>0.6193167177935033</v>
       </c>
       <c r="U8">
-        <v>0.6028575779160634</v>
+        <v>0.6193167177935033</v>
       </c>
       <c r="V8">
-        <v>0.6392339885526261</v>
+        <v>0.6324082264308485</v>
       </c>
       <c r="W8">
-        <v>0.67927416854391</v>
+        <v>0.6530058846395574</v>
       </c>
       <c r="X8">
-        <v>0.7525476084329112</v>
+        <v>0.7416902031656842</v>
       </c>
       <c r="Y8">
-        <v>0.7525802726439608</v>
+        <v>0.7416902031656842</v>
       </c>
       <c r="Z8">
-        <v>0.908648309589275</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.9158226687523076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.9373327640370963</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.9387650436713422</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.9413173503913639</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE8">
-        <v>0.9539110978395771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.9809626961919699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.9809626961919699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9839856786899812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
         <v>0.9999999999999999</v>
@@ -3189,97 +3189,97 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1333231199823689</v>
+        <v>0.1859256117583172</v>
       </c>
       <c r="N9">
-        <v>0.1411286820333188</v>
+        <v>0.1859256117583172</v>
       </c>
       <c r="O9">
-        <v>0.3273805702288334</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="P9">
-        <v>0.3296795798155401</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="Q9">
-        <v>0.3316953961407404</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="R9">
-        <v>0.3366847469479964</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="S9">
-        <v>0.3367427097782438</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="T9">
-        <v>0.3372613445647666</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="U9">
-        <v>0.3525111707909073</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="V9">
-        <v>0.3673558677478793</v>
+        <v>0.4670943173307056</v>
       </c>
       <c r="W9">
-        <v>0.4639909647100958</v>
+        <v>0.5870013736544886</v>
       </c>
       <c r="X9">
-        <v>0.4666667971849671</v>
+        <v>0.5870013736544886</v>
       </c>
       <c r="Y9">
-        <v>0.4713940252111695</v>
+        <v>0.5870013736544886</v>
       </c>
       <c r="Z9">
-        <v>0.4934215127104688</v>
+        <v>0.5870013736544886</v>
       </c>
       <c r="AA9">
-        <v>0.5926856903872726</v>
+        <v>0.7116393502244376</v>
       </c>
       <c r="AB9">
-        <v>0.6201012533153931</v>
+        <v>0.7116393502244376</v>
       </c>
       <c r="AC9">
-        <v>0.6746461867087656</v>
+        <v>0.7558069262471967</v>
       </c>
       <c r="AD9">
-        <v>0.6754240583813745</v>
+        <v>0.7558069262471967</v>
       </c>
       <c r="AE9">
-        <v>0.7453229406142324</v>
+        <v>0.8276032878832275</v>
       </c>
       <c r="AF9">
-        <v>0.7484456522012117</v>
+        <v>0.8276032878832275</v>
       </c>
       <c r="AG9">
-        <v>0.7940098480156534</v>
+        <v>0.8556104040912951</v>
       </c>
       <c r="AH9">
-        <v>0.8548489821859735</v>
+        <v>0.9111041298681782</v>
       </c>
       <c r="AI9">
-        <v>0.9342504528532142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9471858163330785</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9545614440323615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.9612043725114442</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.9631805238895502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.9807197007322297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.9835609791612762</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.9836832995234293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.9959404973218486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
         <v>0.9999999999999999</v>
@@ -3320,97 +3320,97 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03105802702806259</v>
+        <v>0.002172713658479728</v>
       </c>
       <c r="M10">
-        <v>0.1003477528465061</v>
+        <v>0.08285621385220729</v>
       </c>
       <c r="N10">
-        <v>0.3068415622790525</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="O10">
-        <v>0.3304891985109338</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="P10">
-        <v>0.340411130166308</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="Q10">
-        <v>0.3410003001777137</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="R10">
-        <v>0.3546042777845087</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="S10">
-        <v>0.3600561444302675</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="T10">
-        <v>0.3693310737697589</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="U10">
-        <v>0.3755342638392242</v>
+        <v>0.4452954523784763</v>
       </c>
       <c r="V10">
-        <v>0.4983865703546886</v>
+        <v>0.6359725043219584</v>
       </c>
       <c r="W10">
-        <v>0.5220447316677084</v>
+        <v>0.6359725043219584</v>
       </c>
       <c r="X10">
-        <v>0.5220543317731912</v>
+        <v>0.6359725043219584</v>
       </c>
       <c r="Y10">
-        <v>0.5586447627373811</v>
+        <v>0.6495062978748355</v>
       </c>
       <c r="Z10">
-        <v>0.586225797328077</v>
+        <v>0.6495062978748355</v>
       </c>
       <c r="AA10">
-        <v>0.6503413187450839</v>
+        <v>0.7195642995920701</v>
       </c>
       <c r="AB10">
-        <v>0.6521709749197567</v>
+        <v>0.7195642995920701</v>
       </c>
       <c r="AC10">
-        <v>0.6862369512015789</v>
+        <v>0.727913993851532</v>
       </c>
       <c r="AD10">
-        <v>0.7316152975874726</v>
+        <v>0.7594942298485725</v>
       </c>
       <c r="AE10">
-        <v>0.757770902312682</v>
+        <v>0.7594942298485725</v>
       </c>
       <c r="AF10">
-        <v>0.823292964334513</v>
+        <v>0.8324406360226421</v>
       </c>
       <c r="AG10">
-        <v>0.8274348972937821</v>
+        <v>0.8324406360226421</v>
       </c>
       <c r="AH10">
-        <v>0.9390297891015991</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9396152874431069</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9573626735266723</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9574764594265551</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9596393673261681</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9743083771052203</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9821385946878982</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9821849682383823</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9869350068545902</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3454,97 +3454,97 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06631965444707476</v>
+        <v>0.06895305484148961</v>
       </c>
       <c r="M11">
-        <v>0.08365980114991756</v>
+        <v>0.06895305484148961</v>
       </c>
       <c r="N11">
-        <v>0.2720656903904424</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="O11">
-        <v>0.2797505916675149</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="P11">
-        <v>0.2797652268622641</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="Q11">
-        <v>0.2798508316514715</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="R11">
-        <v>0.2822272115275868</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="S11">
-        <v>0.2825428094155524</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="T11">
-        <v>0.2978424097789731</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="U11">
-        <v>0.297844323692618</v>
+        <v>0.3696874680483465</v>
       </c>
       <c r="V11">
-        <v>0.4156551159461362</v>
+        <v>0.536396718621053</v>
       </c>
       <c r="W11">
-        <v>0.4362536912006098</v>
+        <v>0.536396718621053</v>
       </c>
       <c r="X11">
-        <v>0.4376457166449828</v>
+        <v>0.536396718621053</v>
       </c>
       <c r="Y11">
-        <v>0.4680809806208576</v>
+        <v>0.5372230695667306</v>
       </c>
       <c r="Z11">
-        <v>0.530842372180236</v>
+        <v>0.5994207436158919</v>
       </c>
       <c r="AA11">
-        <v>0.5842063715534909</v>
+        <v>0.6437774192127967</v>
       </c>
       <c r="AB11">
-        <v>0.5924972726123419</v>
+        <v>0.6437774192127967</v>
       </c>
       <c r="AC11">
-        <v>0.6066410993574209</v>
+        <v>0.6437774192127967</v>
       </c>
       <c r="AD11">
-        <v>0.6466987270427398</v>
+        <v>0.6628718782300668</v>
       </c>
       <c r="AE11">
-        <v>0.6728996554311429</v>
+        <v>0.6628718782300668</v>
       </c>
       <c r="AF11">
-        <v>0.7582916623206144</v>
+        <v>0.7680338944159758</v>
       </c>
       <c r="AG11">
-        <v>0.762203789332316</v>
+        <v>0.7680338944159758</v>
       </c>
       <c r="AH11">
-        <v>0.9143873360600538</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9145378972251759</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9369098724381499</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9370087607500167</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9382742114063797</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9576422434126249</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9779792602995042</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9780172266612723</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9832771446227533</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3612,34 +3612,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6590747668414725</v>
       </c>
       <c r="F2">
-        <v>0.5138739359002846</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>60</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -3653,34 +3653,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5545286698173847</v>
       </c>
       <c r="F3">
-        <v>0.5423421025517461</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>60</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -3694,34 +3694,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6322748203580499</v>
       </c>
       <c r="F4">
-        <v>0.5196548031030683</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>60</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -3735,34 +3735,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5957697008364411</v>
       </c>
       <c r="F5">
-        <v>0.588198952226455</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>60</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -3776,34 +3776,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.6497750440700129</v>
       </c>
       <c r="F6">
-        <v>0.504369507099428</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>60</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -3817,34 +3817,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5121319794543278</v>
       </c>
       <c r="F7">
-        <v>0.5287588635953633</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>60</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -3858,34 +3858,34 @@
         <v>50</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5047040475669431</v>
       </c>
       <c r="F8">
-        <v>0.5239444750402056</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>60</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -3899,34 +3899,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5870013736544886</v>
       </c>
       <c r="F9">
-        <v>0.5926856903872726</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>60</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -3940,34 +3940,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6359725043219584</v>
       </c>
       <c r="F10">
-        <v>0.5220447316677084</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>60</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -3981,34 +3981,34 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.536396718621053</v>
       </c>
       <c r="F11">
-        <v>0.530842372180236</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>60</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
@@ -4076,34 +4076,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8030550708726067</v>
       </c>
       <c r="F2">
-        <v>0.7174899945719714</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>60</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -4117,34 +4117,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7046325610555677</v>
       </c>
       <c r="F3">
-        <v>0.7125473777244087</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>60</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -4158,34 +4158,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7693403401440513</v>
       </c>
       <c r="F4">
-        <v>0.7188904100935471</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>60</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -4199,34 +4199,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7593658694368066</v>
       </c>
       <c r="F5">
-        <v>0.7295071811025169</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>60</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -4240,34 +4240,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7605129807651493</v>
       </c>
       <c r="F6">
-        <v>0.7806921911270699</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>60</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -4281,34 +4281,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.7384890274724357</v>
+      </c>
+      <c r="F7">
         <v>31</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7552212083076263</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>21</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>60</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -4322,34 +4322,34 @@
         <v>50</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7416902031656842</v>
+      </c>
+      <c r="F8">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7525476084329112</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>22</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>60</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -4363,34 +4363,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7116393502244376</v>
       </c>
       <c r="F9">
-        <v>0.7453229406142324</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>60</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -4404,34 +4404,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7195642995920701</v>
       </c>
       <c r="F10">
-        <v>0.7316152975874726</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>60</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -4445,34 +4445,34 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7680338944159758</v>
+      </c>
+      <c r="F11">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7582916623206144</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>60</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
@@ -4540,34 +4540,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8030550708726067</v>
       </c>
       <c r="F2">
-        <v>0.8404581660284151</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>60</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -4581,34 +4581,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8022718371034036</v>
       </c>
       <c r="F3">
-        <v>0.815254413447149</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>60</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -4622,34 +4622,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.823250632463029</v>
       </c>
       <c r="F4">
-        <v>0.8032072737648037</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>60</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -4663,34 +4663,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8490363075283469</v>
       </c>
       <c r="F5">
-        <v>0.8118923458915439</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>60</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -4704,34 +4704,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8827427256674527</v>
       </c>
       <c r="F6">
-        <v>0.8324954744551802</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>60</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -4745,34 +4745,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>33</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9080664906012925</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>23</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>60</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -4786,34 +4786,34 @@
         <v>50</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.908648309589275</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>60</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -4827,34 +4827,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8276032878832275</v>
       </c>
       <c r="F9">
-        <v>0.8548489821859735</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>60</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -4868,34 +4868,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.8324406360226421</v>
+      </c>
+      <c r="F10">
         <v>31</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.823292964334513</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>60</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -4909,34 +4909,34 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9143873360600538</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>60</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
@@ -5004,34 +5004,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9226176609118335</v>
       </c>
       <c r="F2">
-        <v>0.9328742434134409</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>60</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -5045,34 +5045,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9528985437846972</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>60</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -5086,34 +5086,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>33</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9294425212148542</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>23</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>60</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -5127,34 +5127,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.902639377412657</v>
       </c>
       <c r="F5">
-        <v>0.902353244009677</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>60</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -5168,34 +5168,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9139816912841928</v>
       </c>
       <c r="F6">
-        <v>0.9738998494055372</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>60</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -5209,34 +5209,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>33</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9080664906012925</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>23</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>60</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -5250,34 +5250,34 @@
         <v>50</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.908648309589275</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>60</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -5291,34 +5291,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9111041298681782</v>
       </c>
       <c r="F9">
-        <v>0.9342504528532142</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>60</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -5332,34 +5332,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>33</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9390297891015991</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>60</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -5373,34 +5373,34 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9143873360600538</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>60</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
